--- a/trakme_AddWorkOrder_WorkOrder.xlsx
+++ b/trakme_AddWorkOrder_WorkOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trakemeTesting_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trakme_Testing_report\Manual_Testing_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F41EB-5A63-4857-9360-85D5AFCFFF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585445D-DB75-410B-A315-5FF92ED0E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="110">
   <si>
     <t>Project Name</t>
   </si>
@@ -371,6 +369,9 @@
   </si>
   <si>
     <t>Showing error can't load form options</t>
+  </si>
+  <si>
+    <t>Fixed now</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1093,226 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,222 +1337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1761,12 +1762,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -1775,10 +1776,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -1787,10 +1788,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1799,10 +1800,10 @@
       <c r="D6" s="3">
         <v>45310</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -1811,10 +1812,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -1861,318 +1862,318 @@
       </c>
     </row>
     <row r="16" spans="3:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="153" t="s">
+      <c r="K16" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="155" t="s">
+      <c r="M16" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="155" t="s">
+      <c r="N16" s="89" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="156" t="s">
+      <c r="P16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="157" t="s">
+      <c r="Q16" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="158" t="s">
+      <c r="R16" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="147" t="s">
+      <c r="S16" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="148">
+      <c r="T16" s="99">
         <v>45310</v>
       </c>
-      <c r="U16" s="150"/>
-      <c r="V16" s="126"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="103"/>
     </row>
     <row r="17" spans="11:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="139"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="127"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="104"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="140" t="s">
+      <c r="M18" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="142" t="s">
+      <c r="O18" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="120" t="s">
+      <c r="S18" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="122">
+      <c r="T18" s="120">
         <v>45310</v>
       </c>
-      <c r="U18" s="124"/>
-      <c r="V18" s="126"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="103"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="144"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="145"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="110"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="146"/>
-      <c r="P19" s="106"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="137"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="126"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="139"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="141"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="103"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="92"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="123"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="122"/>
       <c r="U20" s="125"/>
-      <c r="V20" s="127"/>
+      <c r="V20" s="104"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="138" t="s">
+      <c r="K21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="96" t="s">
+      <c r="L21" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="140" t="s">
+      <c r="M21" s="109" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="142" t="s">
+      <c r="O21" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="120" t="s">
+      <c r="S21" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="122">
+      <c r="T21" s="120">
         <v>45310</v>
       </c>
-      <c r="U21" s="124"/>
-      <c r="V21" s="126"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="103"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="144"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="145"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="110"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="106"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="137"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="126"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="139"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="141"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="103"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="123"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="122"/>
       <c r="U23" s="125"/>
-      <c r="V23" s="127"/>
+      <c r="V23" s="104"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="138" t="s">
+      <c r="K24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="96" t="s">
+      <c r="L24" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="140" t="s">
+      <c r="M24" s="109" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="142"/>
-      <c r="P24" s="102" t="s">
+      <c r="O24" s="111"/>
+      <c r="P24" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="81" t="s">
+      <c r="R24" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="122">
+      <c r="T24" s="120">
         <v>45310</v>
       </c>
-      <c r="U24" s="124"/>
-      <c r="V24" s="126"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="103"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="139"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="141"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="143"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="123"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="122"/>
       <c r="U25" s="125"/>
-      <c r="V25" s="127"/>
+      <c r="V25" s="104"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="98" t="s">
+      <c r="M26" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="98" t="s">
+      <c r="N26" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="131" t="s">
+      <c r="O26" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="102" t="s">
+      <c r="P26" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="107" t="s">
+      <c r="Q26" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="111" t="s">
+      <c r="S26" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="114">
+      <c r="T26" s="148">
         <v>45310</v>
       </c>
-      <c r="U26" s="117" t="s">
+      <c r="U26" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="91"/>
+      <c r="V26" s="133"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="92"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="134"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="92"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="134"/>
     </row>
     <row r="29" spans="11:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="95"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="93"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="135"/>
     </row>
     <row r="30" spans="11:22" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K30" s="66" t="s">
@@ -2265,32 +2266,32 @@
       <c r="V34" s="78"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="94"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="98"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="127"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="89"/>
+      <c r="O35" s="138"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="140"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="159"/>
+      <c r="V35" s="161"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="95"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="99"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="84"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="90"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="156"/>
+      <c r="T36" s="158"/>
+      <c r="U36" s="160"/>
+      <c r="V36" s="162"/>
     </row>
     <row r="37" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28"/>
@@ -2350,51 +2351,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -2411,11 +2372,51 @@
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="R16:T40">
@@ -2466,12 +2467,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="152" t="s">
+      <c r="O3" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -2480,10 +2481,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -2492,10 +2493,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -2504,10 +2505,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -2516,10 +2517,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2566,329 +2567,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="153" t="s">
+      <c r="K16" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="155" t="s">
+      <c r="M16" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="155" t="s">
+      <c r="N16" s="89" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="156" t="s">
+      <c r="P16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="157" t="s">
+      <c r="Q16" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="158" t="s">
+      <c r="R16" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="147" t="s">
+      <c r="S16" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="148">
+      <c r="T16" s="99">
         <v>45306</v>
       </c>
-      <c r="U16" s="150"/>
-      <c r="V16" s="126"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="103"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="139"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="127"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="104"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="140" t="s">
+      <c r="M18" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="142" t="s">
+      <c r="O18" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="120" t="s">
+      <c r="S18" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="122">
+      <c r="T18" s="120">
         <v>45306</v>
       </c>
-      <c r="U18" s="124"/>
-      <c r="V18" s="126"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="103"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="144"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="145"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="110"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="146"/>
-      <c r="P19" s="106"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="137"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="126"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="139"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="141"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="103"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="92"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="123"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="122"/>
       <c r="U20" s="125"/>
-      <c r="V20" s="127"/>
+      <c r="V20" s="104"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="138" t="s">
+      <c r="K21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="96" t="s">
+      <c r="L21" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="140" t="s">
+      <c r="M21" s="109" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="142" t="s">
+      <c r="O21" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="111" t="s">
+      <c r="S21" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="114">
+      <c r="T21" s="148">
         <v>45306</v>
       </c>
-      <c r="U21" s="117" t="s">
+      <c r="U21" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="91"/>
+      <c r="V21" s="133"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="144"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="145"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="110"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="106"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="92"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="134"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="139"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="141"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="103"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="135"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="138" t="s">
+      <c r="K24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="96" t="s">
+      <c r="L24" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="140" t="s">
+      <c r="M24" s="109" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="142"/>
-      <c r="P24" s="102" t="s">
+      <c r="O24" s="111"/>
+      <c r="P24" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="81" t="s">
+      <c r="R24" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="122">
+      <c r="T24" s="120">
         <v>45306</v>
       </c>
-      <c r="U24" s="124"/>
-      <c r="V24" s="126"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="103"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="139"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="141"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="143"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="123"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="122"/>
       <c r="U25" s="125"/>
-      <c r="V25" s="127"/>
+      <c r="V25" s="104"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="98" t="s">
+      <c r="M26" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="98" t="s">
+      <c r="N26" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="131" t="s">
+      <c r="O26" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="102" t="s">
+      <c r="P26" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="107" t="s">
+      <c r="Q26" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="111" t="s">
+      <c r="S26" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="114">
+      <c r="T26" s="148">
         <v>45306</v>
       </c>
-      <c r="U26" s="117" t="s">
+      <c r="U26" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="91"/>
+      <c r="V26" s="133"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="92"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="134"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="92"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="134"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="95"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="93"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="135"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="94" t="s">
+      <c r="K30" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="96" t="s">
+      <c r="L30" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="98" t="s">
+      <c r="M30" s="127" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -2914,9 +2915,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="130"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="128"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -2942,9 +2943,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="130"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="128"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -2972,9 +2973,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="130"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="128"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3000,9 +3001,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="95"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="99"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3014,52 +3015,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="94" t="s">
+      <c r="K35" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="96" t="s">
+      <c r="L35" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="98" t="s">
+      <c r="M35" s="127" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="100"/>
-      <c r="P35" s="102" t="s">
+      <c r="O35" s="138"/>
+      <c r="P35" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="81" t="s">
+      <c r="Q35" s="140"/>
+      <c r="R35" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="111" t="s">
+      <c r="S35" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="114">
+      <c r="T35" s="148">
         <v>45306</v>
       </c>
-      <c r="U35" s="117" t="s">
+      <c r="U35" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="91"/>
+      <c r="V35" s="133"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="95"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="99"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="93"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="135"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3151,53 +3152,17 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="M30:M34"/>
@@ -3209,783 +3174,16 @@
     <mergeCell ref="O26:O29"/>
     <mergeCell ref="P26:P29"/>
     <mergeCell ref="N26:N29"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
-  <dimension ref="C3:V40"/>
-  <sheetViews>
-    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" customWidth="1"/>
-    <col min="18" max="18" width="31.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="152" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-    </row>
-    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-    </row>
-    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-    </row>
-    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
-    </row>
-    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="153" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="154" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="155" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="155" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="156" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="158" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="147" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="148">
-        <v>45306</v>
-      </c>
-      <c r="U16" s="150"/>
-      <c r="V16" s="126"/>
-    </row>
-    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="139"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="127"/>
-    </row>
-    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="96" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="122">
-        <v>45306</v>
-      </c>
-      <c r="U18" s="124"/>
-      <c r="V18" s="126"/>
-    </row>
-    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="144"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="146"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="137"/>
-    </row>
-    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="139"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="127"/>
-    </row>
-    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="140" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="114">
-        <v>45306</v>
-      </c>
-      <c r="U21" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="91"/>
-    </row>
-    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="144"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="92"/>
-    </row>
-    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="139"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="93"/>
-    </row>
-    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="140" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="142"/>
-      <c r="P24" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="122">
-        <v>45306</v>
-      </c>
-      <c r="U24" s="124"/>
-      <c r="V24" s="126"/>
-    </row>
-    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="139"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="143"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="127"/>
-    </row>
-    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="114">
-        <v>45306</v>
-      </c>
-      <c r="U26" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" s="91"/>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="92"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="92"/>
-    </row>
-    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="95"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="93"/>
-    </row>
-    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="15">
-        <v>45306</v>
-      </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="47"/>
-    </row>
-    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="49"/>
-    </row>
-    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="46">
-        <v>45307</v>
-      </c>
-      <c r="U32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="49"/>
-    </row>
-    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="49"/>
-    </row>
-    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="95"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="48"/>
-    </row>
-    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="100"/>
-      <c r="P35" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="111" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="114">
-        <v>45306</v>
-      </c>
-      <c r="U35" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="91"/>
-    </row>
-    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="95"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="93"/>
-    </row>
-    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="51">
-        <v>45306</v>
-      </c>
-      <c r="U37" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="V37" s="53"/>
-    </row>
-    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-    </row>
-    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K40" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="U26:U29"/>
     <mergeCell ref="V26:V29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="T24:T25"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
@@ -4033,18 +3231,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
   <dimension ref="C3:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q24" zoomScale="86" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26:U29"/>
+    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4070,14 +3268,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -4086,10 +3284,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -4098,10 +3296,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -4110,10 +3308,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
-      <c r="R6" s="152"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -4122,18 +3320,16 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3">
-        <v>45323</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
       <c r="K15" s="4" t="s">
@@ -4174,329 +3370,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="153" t="s">
+      <c r="K16" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="154" t="s">
+      <c r="L16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="155" t="s">
+      <c r="M16" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="155" t="s">
+      <c r="N16" s="89" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="156" t="s">
+      <c r="P16" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="157" t="s">
+      <c r="Q16" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="158" t="s">
+      <c r="R16" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="147" t="s">
+      <c r="S16" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="148">
-        <v>45323</v>
-      </c>
-      <c r="U16" s="150"/>
-      <c r="V16" s="126"/>
+      <c r="T16" s="99">
+        <v>45306</v>
+      </c>
+      <c r="U16" s="101"/>
+      <c r="V16" s="103"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="139"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="121"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="127"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="104"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="138" t="s">
+      <c r="K18" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="96" t="s">
+      <c r="L18" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="140" t="s">
+      <c r="M18" s="109" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="142" t="s">
+      <c r="O18" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="102" t="s">
+      <c r="P18" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="81" t="s">
+      <c r="R18" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="120" t="s">
+      <c r="S18" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="122">
-        <v>45323</v>
-      </c>
-      <c r="U18" s="124"/>
-      <c r="V18" s="126"/>
+      <c r="T18" s="120">
+        <v>45306</v>
+      </c>
+      <c r="U18" s="123"/>
+      <c r="V18" s="103"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="144"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="145"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="110"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="146"/>
-      <c r="P19" s="106"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="110"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="137"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="126"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="139"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="141"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="90"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="103"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="92"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="82"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="123"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="122"/>
       <c r="U20" s="125"/>
-      <c r="V20" s="127"/>
+      <c r="V20" s="104"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="138" t="s">
+      <c r="K21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="96" t="s">
+      <c r="L21" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="140" t="s">
+      <c r="M21" s="109" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="142" t="s">
+      <c r="O21" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="102" t="s">
+      <c r="P21" s="114" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="120" t="s">
+      <c r="R21" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="122">
-        <v>45323</v>
-      </c>
-      <c r="U21" s="124" t="s">
+      <c r="T21" s="148">
+        <v>45306</v>
+      </c>
+      <c r="U21" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="126"/>
+      <c r="V21" s="133"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="144"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="145"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="110"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="106"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="110"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="137"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="134"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="139"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="141"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="90"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="143"/>
-      <c r="P23" s="103"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="92"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="127"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="150"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="135"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="138" t="s">
+      <c r="K24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="96" t="s">
+      <c r="L24" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="140" t="s">
+      <c r="M24" s="109" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="142"/>
-      <c r="P24" s="102" t="s">
+      <c r="O24" s="111"/>
+      <c r="P24" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="81" t="s">
+      <c r="Q24" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="81" t="s">
+      <c r="R24" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="122">
-        <v>45323</v>
-      </c>
-      <c r="U24" s="124"/>
-      <c r="V24" s="126"/>
+      <c r="T24" s="120">
+        <v>45306</v>
+      </c>
+      <c r="U24" s="123"/>
+      <c r="V24" s="103"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="139"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="141"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="90"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="143"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="123"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="122"/>
       <c r="U25" s="125"/>
-      <c r="V25" s="127"/>
+      <c r="V25" s="104"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="94" t="s">
+      <c r="K26" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="98" t="s">
+      <c r="M26" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="98" t="s">
+      <c r="N26" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="131" t="s">
+      <c r="O26" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="102" t="s">
+      <c r="P26" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="107" t="s">
+      <c r="Q26" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="81" t="s">
+      <c r="R26" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="111" t="s">
+      <c r="S26" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="114">
-        <v>45323</v>
-      </c>
-      <c r="U26" s="117" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="91"/>
+      <c r="T26" s="148">
+        <v>45306</v>
+      </c>
+      <c r="U26" s="151" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="133"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="128"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="92"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="146"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="134"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="128"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="130"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="108"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="92"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="152"/>
+      <c r="V28" s="134"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="95"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="119"/>
-      <c r="V29" s="93"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="150"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="135"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="94" t="s">
+      <c r="K30" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="96" t="s">
+      <c r="L30" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="98" t="s">
+      <c r="M30" s="127" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -4516,15 +3712,15 @@
         <v>4</v>
       </c>
       <c r="T30" s="15">
-        <v>45323</v>
+        <v>45306</v>
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="128"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="130"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="128"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -4544,15 +3740,15 @@
         <v>4</v>
       </c>
       <c r="T31" s="46">
-        <v>45323</v>
+        <v>45306</v>
       </c>
       <c r="U31" s="44"/>
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="128"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="130"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="128"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -4572,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="T32" s="46">
-        <v>45323</v>
+        <v>45307</v>
       </c>
       <c r="U32" s="44" t="s">
         <v>89</v>
@@ -4580,9 +3776,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="128"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="130"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="128"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -4600,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="T33" s="46">
-        <v>45323</v>
+        <v>45306</v>
       </c>
       <c r="U33" s="44" t="s">
         <v>91</v>
@@ -4608,9 +3804,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="95"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="99"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -4622,52 +3818,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="94" t="s">
+      <c r="K35" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="96" t="s">
+      <c r="L35" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="98" t="s">
+      <c r="M35" s="127" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="100"/>
-      <c r="P35" s="102" t="s">
+      <c r="O35" s="138"/>
+      <c r="P35" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="81" t="s">
+      <c r="Q35" s="140"/>
+      <c r="R35" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="111" t="s">
+      <c r="S35" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="114">
-        <v>45323</v>
-      </c>
-      <c r="U35" s="117" t="s">
+      <c r="T35" s="148">
+        <v>45306</v>
+      </c>
+      <c r="U35" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="91"/>
+      <c r="V35" s="133"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="95"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="99"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="119"/>
-      <c r="V36" s="93"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="135"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -4688,18 +3884,18 @@
         <v>95</v>
       </c>
       <c r="R37" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="S37" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T37" s="160">
-        <v>45323</v>
-      </c>
-      <c r="U37" s="161" t="s">
+      <c r="T37" s="51">
+        <v>45306</v>
+      </c>
+      <c r="U37" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="V37" s="162"/>
+      <c r="V37" s="53"/>
     </row>
     <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="28" t="s">
@@ -4759,11 +3955,54 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -4780,16 +4019,777 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
+  <dimension ref="C3:V40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N24" zoomScale="86" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26:V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+    </row>
+    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+    </row>
+    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+    </row>
+    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+    </row>
+    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K16" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="99">
+        <v>45323</v>
+      </c>
+      <c r="U16" s="101"/>
+      <c r="V16" s="103"/>
+    </row>
+    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="86"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="104"/>
+    </row>
+    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="120">
+        <v>45323</v>
+      </c>
+      <c r="U18" s="123"/>
+      <c r="V18" s="103"/>
+    </row>
+    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="106"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="112"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="117"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="126"/>
+    </row>
+    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="86"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="94"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="104"/>
+    </row>
+    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="120">
+        <v>45323</v>
+      </c>
+      <c r="U21" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="103"/>
+    </row>
+    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="106"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="112"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="117"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="126"/>
+    </row>
+    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="86"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="113"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="94"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="104"/>
+    </row>
+    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="111"/>
+      <c r="P24" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="120">
+        <v>45323</v>
+      </c>
+      <c r="U24" s="123"/>
+      <c r="V24" s="103"/>
+    </row>
+    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="86"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="113"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="104"/>
+    </row>
+    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="118" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="120">
+        <v>45323</v>
+      </c>
+      <c r="U26" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="133" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="154"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="117"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="124"/>
+      <c r="V27" s="134"/>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K28" s="154"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="119"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="124"/>
+      <c r="V28" s="134"/>
+    </row>
+    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="137"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="135"/>
+    </row>
+    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45323</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="154"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U31" s="44"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="154"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="154"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="137"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="127" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="138"/>
+      <c r="P35" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="140"/>
+      <c r="R35" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="148">
+        <v>45323</v>
+      </c>
+      <c r="U35" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="133"/>
+    </row>
+    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="137"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="139"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="147"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="135"/>
+    </row>
+    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="81">
+        <v>45323</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="83"/>
+    </row>
+    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="S21:S23"/>
     <mergeCell ref="T21:T23"/>
     <mergeCell ref="U21:U23"/>
@@ -4800,34 +4800,37 @@
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">

--- a/trakme_AddWorkOrder_WorkOrder.xlsx
+++ b/trakme_AddWorkOrder_WorkOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trakme_Testing_report\Manual_Testing_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C585445D-DB75-410B-A315-5FF92ED0E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4D899-078D-4589-99D3-083C632870C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Workorder1.0" sheetId="4" r:id="rId1"/>
     <sheet name="AddWorkOrder1" sheetId="1" r:id="rId2"/>
     <sheet name="Addworkorder1.1" sheetId="2" r:id="rId3"/>
-    <sheet name="Addworkorder1.2" sheetId="5" r:id="rId4"/>
+    <sheet name="Addworkorder1.3" sheetId="6" r:id="rId4"/>
+    <sheet name="Addworkorder1.2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="116">
   <si>
     <t>Project Name</t>
   </si>
@@ -372,13 +373,31 @@
   </si>
   <si>
     <t>Fixed now</t>
+  </si>
+  <si>
+    <t>Plese make set non-mandatory field</t>
+  </si>
+  <si>
+    <t>as discussed in meeting</t>
+  </si>
+  <si>
+    <t>fixed(27-03-2024)</t>
+  </si>
+  <si>
+    <t>Footer is not available(27-03-2024)</t>
+  </si>
+  <si>
+    <t>please specify the reason</t>
+  </si>
+  <si>
+    <t>assign to Mohd Owais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +472,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -851,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1102,249 +1129,277 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1762,12 +1817,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -1776,10 +1831,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -1788,10 +1843,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1800,10 +1855,10 @@
       <c r="D6" s="3">
         <v>45310</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -1812,10 +1867,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -1862,318 +1917,318 @@
       </c>
     </row>
     <row r="16" spans="3:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="89" t="s">
+      <c r="M16" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="89" t="s">
+      <c r="N16" s="159" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="93" t="s">
+      <c r="Q16" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="97" t="s">
+      <c r="S16" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="99">
+      <c r="T16" s="152">
         <v>45310</v>
       </c>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="139"/>
     </row>
     <row r="17" spans="11:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="86"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="104"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="141"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="144" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="118" t="s">
+      <c r="S18" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="120">
+      <c r="T18" s="133">
         <v>45310</v>
       </c>
-      <c r="U18" s="123"/>
-      <c r="V18" s="103"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="139"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="106"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="110"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="126"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="86"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="94"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="104"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="141"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="105" t="s">
+      <c r="K21" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="109" t="s">
+      <c r="M21" s="144" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="114" t="s">
+      <c r="P21" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="116" t="s">
+      <c r="R21" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="118" t="s">
+      <c r="S21" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="120">
+      <c r="T21" s="133">
         <v>45310</v>
       </c>
-      <c r="U21" s="123"/>
-      <c r="V21" s="103"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="139"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="106"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="110"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="117"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="126"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="140"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="86"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="90"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="113"/>
-      <c r="P23" s="92"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="94"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="104"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="141"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="107" t="s">
+      <c r="L24" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="144" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="114" t="s">
+      <c r="O24" s="146"/>
+      <c r="P24" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="116" t="s">
+      <c r="Q24" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="118" t="s">
+      <c r="S24" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="120">
+      <c r="T24" s="133">
         <v>45310</v>
       </c>
-      <c r="U24" s="123"/>
-      <c r="V24" s="103"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="139"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="86"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="90"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="104"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="141"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="107" t="s">
+      <c r="L26" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="127" t="s">
+      <c r="M26" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="127" t="s">
+      <c r="N26" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="114" t="s">
+      <c r="P26" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="R26" s="116" t="s">
+      <c r="R26" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="145" t="s">
+      <c r="S26" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="148">
+      <c r="T26" s="118">
         <v>45310</v>
       </c>
-      <c r="U26" s="151" t="s">
+      <c r="U26" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="133"/>
+      <c r="V26" s="95"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="154"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="134"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="96"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="154"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="134"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="96"/>
     </row>
     <row r="29" spans="11:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="137"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="135"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="97"/>
     </row>
     <row r="30" spans="11:22" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K30" s="66" t="s">
@@ -2266,32 +2321,32 @@
       <c r="V34" s="78"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="136"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="127"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="102"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="138"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="157"/>
-      <c r="U35" s="159"/>
-      <c r="V35" s="161"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="106"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="93"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="137"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="129"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="139"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="156"/>
-      <c r="T36" s="158"/>
-      <c r="U36" s="160"/>
-      <c r="V36" s="162"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="94"/>
     </row>
     <row r="37" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28"/>
@@ -2351,11 +2406,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -2372,58 +2467,18 @@
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2467,12 +2522,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -2481,10 +2536,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -2493,10 +2548,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -2505,10 +2560,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -2517,10 +2572,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2567,329 +2622,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="89" t="s">
+      <c r="M16" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="89" t="s">
+      <c r="N16" s="159" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="93" t="s">
+      <c r="Q16" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="97" t="s">
+      <c r="S16" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="99">
+      <c r="T16" s="152">
         <v>45306</v>
       </c>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="139"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="86"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="104"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="141"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="144" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="118" t="s">
+      <c r="S18" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="120">
+      <c r="T18" s="133">
         <v>45306</v>
       </c>
-      <c r="U18" s="123"/>
-      <c r="V18" s="103"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="139"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="106"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="110"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="126"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="86"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="94"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="104"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="141"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="105" t="s">
+      <c r="K21" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="109" t="s">
+      <c r="M21" s="144" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="114" t="s">
+      <c r="P21" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="116" t="s">
+      <c r="R21" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="145" t="s">
+      <c r="S21" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="148">
+      <c r="T21" s="118">
         <v>45306</v>
       </c>
-      <c r="U21" s="151" t="s">
+      <c r="U21" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="133"/>
+      <c r="V21" s="95"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="106"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="110"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="117"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="134"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="96"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="86"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="90"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="113"/>
-      <c r="P23" s="92"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="94"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="135"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="97"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="107" t="s">
+      <c r="L24" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="144" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="114" t="s">
+      <c r="O24" s="146"/>
+      <c r="P24" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="116" t="s">
+      <c r="Q24" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="118" t="s">
+      <c r="S24" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="120">
+      <c r="T24" s="133">
         <v>45306</v>
       </c>
-      <c r="U24" s="123"/>
-      <c r="V24" s="103"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="139"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="86"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="90"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="104"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="141"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="107" t="s">
+      <c r="L26" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="127" t="s">
+      <c r="M26" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="127" t="s">
+      <c r="N26" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="114" t="s">
+      <c r="P26" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="116" t="s">
+      <c r="R26" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="145" t="s">
+      <c r="S26" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="148">
+      <c r="T26" s="118">
         <v>45306</v>
       </c>
-      <c r="U26" s="151" t="s">
+      <c r="U26" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="133"/>
+      <c r="V26" s="95"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="154"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="134"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="96"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="154"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="134"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="96"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="137"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="135"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="97"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="136" t="s">
+      <c r="K30" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="107" t="s">
+      <c r="L30" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="127" t="s">
+      <c r="M30" s="102" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -2915,9 +2970,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="154"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="128"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -2943,9 +2998,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="154"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="128"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -2973,9 +3028,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="154"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="128"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3001,9 +3056,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="137"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="129"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="103"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3015,52 +3070,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="136" t="s">
+      <c r="K35" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="127" t="s">
+      <c r="M35" s="102" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="138"/>
-      <c r="P35" s="114" t="s">
+      <c r="O35" s="104"/>
+      <c r="P35" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="116" t="s">
+      <c r="Q35" s="108"/>
+      <c r="R35" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="145" t="s">
+      <c r="S35" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="148">
+      <c r="T35" s="118">
         <v>45306</v>
       </c>
-      <c r="U35" s="151" t="s">
+      <c r="U35" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="133"/>
+      <c r="V35" s="95"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="137"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="129"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="139"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="135"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="97"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3152,6 +3207,64 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="N26:N29"/>
     <mergeCell ref="U35:U36"/>
     <mergeCell ref="V35:V36"/>
     <mergeCell ref="K35:K36"/>
@@ -3163,27 +3276,772 @@
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="T35:T36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
+  <dimension ref="C3:V40"/>
+  <sheetViews>
+    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="156" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+    </row>
+    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+    </row>
+    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+    </row>
+    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+    </row>
+    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K16" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="159" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="159" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="160" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="162" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="152">
+        <v>45306</v>
+      </c>
+      <c r="U16" s="154"/>
+      <c r="V16" s="139"/>
+    </row>
+    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="143"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="141"/>
+    </row>
+    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="133">
+        <v>45306</v>
+      </c>
+      <c r="U18" s="136"/>
+      <c r="V18" s="139"/>
+    </row>
+    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="148"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="150"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="114"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="140"/>
+    </row>
+    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="143"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="86"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="141"/>
+    </row>
+    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="144" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="146" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="118">
+        <v>45306</v>
+      </c>
+      <c r="U21" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="95"/>
+    </row>
+    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="148"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="150"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="114"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="96"/>
+    </row>
+    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="143"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="147"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="86"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="97"/>
+    </row>
+    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="144" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="146"/>
+      <c r="P24" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="133">
+        <v>45306</v>
+      </c>
+      <c r="U24" s="136"/>
+      <c r="V24" s="139"/>
+    </row>
+    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="143"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="147"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="141"/>
+    </row>
+    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="118">
+        <v>45306</v>
+      </c>
+      <c r="U26" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="95"/>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="96"/>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="96"/>
+    </row>
+    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="99"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="117"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="97"/>
+    </row>
+    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45306</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U31" s="44"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="46">
+        <v>45307</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="99"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="104"/>
+      <c r="P35" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="118">
+        <v>45306</v>
+      </c>
+      <c r="U35" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="95"/>
+    </row>
+    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="105"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="97"/>
+    </row>
+    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="51">
+        <v>45306</v>
+      </c>
+      <c r="U37" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="53"/>
+    </row>
+    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
     <mergeCell ref="Q26:Q29"/>
     <mergeCell ref="R26:R29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="T24:T25"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
@@ -3231,18 +4089,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
-  <dimension ref="C3:V40"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0FD432-C4DE-4B18-BE9A-437748736862}">
+  <dimension ref="C3:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:R7"/>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="70" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3268,14 +4126,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -3284,10 +4142,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -3296,10 +4154,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -3308,10 +4166,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -3320,16 +4178,18 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
     </row>
     <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
       <c r="K15" s="4" t="s">
@@ -3370,329 +4230,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="89" t="s">
+      <c r="M16" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="89" t="s">
+      <c r="N16" s="159" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="93" t="s">
+      <c r="Q16" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="97" t="s">
+      <c r="S16" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="99">
-        <v>45306</v>
-      </c>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103"/>
+      <c r="T16" s="152">
+        <v>45378</v>
+      </c>
+      <c r="U16" s="154"/>
+      <c r="V16" s="139"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="86"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="104"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="141"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="144" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="118" t="s">
+      <c r="S18" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="120">
-        <v>45306</v>
-      </c>
-      <c r="U18" s="123"/>
-      <c r="V18" s="103"/>
+      <c r="T18" s="133">
+        <v>45378</v>
+      </c>
+      <c r="U18" s="136"/>
+      <c r="V18" s="139"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="106"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="110"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="126"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="86"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="94"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="104"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="141"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="105" t="s">
+      <c r="K21" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="109" t="s">
+      <c r="M21" s="144" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="114" t="s">
+      <c r="P21" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="145" t="s">
+      <c r="R21" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="148">
-        <v>45306</v>
-      </c>
-      <c r="U21" s="151" t="s">
+      <c r="T21" s="133">
+        <v>45378</v>
+      </c>
+      <c r="U21" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="133"/>
+      <c r="V21" s="139"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="106"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="110"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="117"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="134"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="140"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="86"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="90"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="113"/>
-      <c r="P23" s="92"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="94"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="150"/>
-      <c r="U23" s="153"/>
-      <c r="V23" s="135"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="141"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="107" t="s">
+      <c r="L24" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="144" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="114" t="s">
+      <c r="O24" s="146"/>
+      <c r="P24" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="116" t="s">
+      <c r="Q24" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="118" t="s">
+      <c r="S24" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="120">
-        <v>45306</v>
-      </c>
-      <c r="U24" s="123"/>
-      <c r="V24" s="103"/>
+      <c r="T24" s="133">
+        <v>45378</v>
+      </c>
+      <c r="U24" s="136"/>
+      <c r="V24" s="139"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="86"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="90"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="104"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="141"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="107" t="s">
+      <c r="L26" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="127" t="s">
+      <c r="M26" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="127" t="s">
+      <c r="N26" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="114" t="s">
+      <c r="P26" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="145" t="s">
+      <c r="R26" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="148">
-        <v>45306</v>
-      </c>
-      <c r="U26" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" s="133"/>
+      <c r="T26" s="133">
+        <v>45378</v>
+      </c>
+      <c r="U26" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="139" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="154"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="134"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="140"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="154"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="134"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="140"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="137"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="135"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="141"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="136" t="s">
+      <c r="K30" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="107" t="s">
+      <c r="L30" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="127" t="s">
+      <c r="M30" s="102" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -3712,15 +4572,15 @@
         <v>4</v>
       </c>
       <c r="T30" s="15">
-        <v>45306</v>
+        <v>45378</v>
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="154"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="128"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -3734,21 +4594,21 @@
         <v>84</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="49"/>
+      <c r="T31" s="165">
+        <v>45378</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="166"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="154"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="128"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3762,23 +4622,23 @@
         <v>88</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="46">
-        <v>45307</v>
-      </c>
-      <c r="U32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="49"/>
+      <c r="T32" s="165">
+        <v>45378</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="166"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="154"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="128"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3790,23 +4650,23 @@
         <v>90</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="49"/>
+      <c r="T33" s="165">
+        <v>45378</v>
+      </c>
+      <c r="U33" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" s="166"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="137"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="129"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="103"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3818,52 +4678,54 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="136" t="s">
+      <c r="K35" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="127" t="s">
+      <c r="M35" s="102" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="138"/>
-      <c r="P35" s="114" t="s">
+      <c r="O35" s="104"/>
+      <c r="P35" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="116" t="s">
+      <c r="Q35" s="108"/>
+      <c r="R35" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="145" t="s">
+      <c r="S35" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="148">
-        <v>45306</v>
-      </c>
-      <c r="U35" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="133"/>
+      <c r="T35" s="118">
+        <v>45378</v>
+      </c>
+      <c r="U35" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="167" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="137"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="129"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="139"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="135"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="97"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3884,20 +4746,20 @@
         <v>95</v>
       </c>
       <c r="R37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="T37" s="51">
-        <v>45306</v>
-      </c>
-      <c r="U37" s="52" t="s">
+      <c r="T37" s="81">
+        <v>45378</v>
+      </c>
+      <c r="U37" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="V37" s="53"/>
-    </row>
-    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V37" s="83"/>
+    </row>
+    <row r="38" spans="11:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="28" t="s">
         <v>61</v>
       </c>
@@ -3910,12 +4772,22 @@
       <c r="P38" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
+      <c r="Q38" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="51">
+        <v>45378</v>
+      </c>
+      <c r="U38" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="V38" s="53"/>
     </row>
     <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="28" t="s">
@@ -3953,56 +4825,45 @@
       <c r="U40" s="45"/>
       <c r="V40" s="33"/>
     </row>
+    <row r="47" spans="11:22" ht="21" x14ac:dyDescent="0.5">
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164"/>
+      <c r="R47" s="164"/>
+      <c r="S47" s="164"/>
+      <c r="T47" s="164"/>
+    </row>
+    <row r="48" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="M48" s="164"/>
+      <c r="N48" s="164"/>
+      <c r="O48" s="164"/>
+      <c r="P48" s="164"/>
+      <c r="Q48" s="164"/>
+      <c r="R48" s="164"/>
+      <c r="S48" s="164"/>
+      <c r="T48" s="164"/>
+    </row>
+    <row r="49" spans="13:20" x14ac:dyDescent="0.35">
+      <c r="M49" s="164"/>
+      <c r="N49" s="164"/>
+      <c r="O49" s="164"/>
+      <c r="P49" s="164"/>
+      <c r="Q49" s="164"/>
+      <c r="R49" s="164"/>
+      <c r="S49" s="164"/>
+      <c r="T49" s="164"/>
+    </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -4019,32 +4880,76 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{773DF529-57B4-4584-835F-CD6187CDE251}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
   <dimension ref="C3:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N24" zoomScale="86" workbookViewId="0">
+    <sheetView topLeftCell="D15" zoomScale="86" workbookViewId="0">
       <selection activeCell="V26" sqref="V26:V29"/>
     </sheetView>
   </sheetViews>
@@ -4073,12 +4978,12 @@
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -4087,10 +4992,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -4099,10 +5004,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -4111,10 +5016,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -4123,10 +5028,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -4175,331 +5080,331 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="85" t="s">
+      <c r="K16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="87" t="s">
+      <c r="L16" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="89" t="s">
+      <c r="M16" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="89" t="s">
+      <c r="N16" s="159" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="93" t="s">
+      <c r="Q16" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="95" t="s">
+      <c r="R16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="97" t="s">
+      <c r="S16" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="99">
+      <c r="T16" s="152">
         <v>45323</v>
       </c>
-      <c r="U16" s="101"/>
-      <c r="V16" s="103"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="139"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="86"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="104"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="141"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="144" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="111" t="s">
+      <c r="O18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="114" t="s">
+      <c r="P18" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="116" t="s">
+      <c r="R18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="118" t="s">
+      <c r="S18" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="120">
+      <c r="T18" s="133">
         <v>45323</v>
       </c>
-      <c r="U18" s="123"/>
-      <c r="V18" s="103"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="139"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="106"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="110"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="149"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="112"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="110"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="126"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="86"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="90"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="145"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="113"/>
-      <c r="P20" s="92"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="94"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="104"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="141"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="105" t="s">
+      <c r="K21" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="107" t="s">
+      <c r="L21" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="109" t="s">
+      <c r="M21" s="144" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="111" t="s">
+      <c r="O21" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="114" t="s">
+      <c r="P21" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="116" t="s">
+      <c r="R21" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="118" t="s">
+      <c r="S21" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="120">
+      <c r="T21" s="133">
         <v>45323</v>
       </c>
-      <c r="U21" s="123" t="s">
+      <c r="U21" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="103"/>
+      <c r="V21" s="139"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="106"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="110"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="149"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="112"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="110"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="117"/>
-      <c r="S22" s="119"/>
-      <c r="T22" s="121"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="126"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="140"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="86"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="90"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="145"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="113"/>
-      <c r="P23" s="92"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="107"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="94"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="104"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="132"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="141"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="107" t="s">
+      <c r="L24" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="109" t="s">
+      <c r="M24" s="144" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="114" t="s">
+      <c r="O24" s="146"/>
+      <c r="P24" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="116" t="s">
+      <c r="Q24" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="116" t="s">
+      <c r="R24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="118" t="s">
+      <c r="S24" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="120">
+      <c r="T24" s="133">
         <v>45323</v>
       </c>
-      <c r="U24" s="123"/>
-      <c r="V24" s="103"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="139"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="86"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="90"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="145"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="125"/>
-      <c r="V25" s="104"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="141"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="107" t="s">
+      <c r="L26" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="127" t="s">
+      <c r="M26" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="127" t="s">
+      <c r="N26" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="130" t="s">
+      <c r="O26" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="114" t="s">
+      <c r="P26" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="116" t="s">
+      <c r="R26" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="118" t="s">
+      <c r="S26" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="120">
+      <c r="T26" s="133">
         <v>45323</v>
       </c>
-      <c r="U26" s="123" t="s">
+      <c r="U26" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="133" t="s">
+      <c r="V26" s="95" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="154"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="124"/>
-      <c r="V27" s="134"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="114"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="96"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="154"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="119"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="124"/>
-      <c r="V28" s="134"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="114"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="96"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="137"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="135"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="97"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="136" t="s">
+      <c r="K30" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="107" t="s">
+      <c r="L30" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="127" t="s">
+      <c r="M30" s="102" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -4525,9 +5430,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="154"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="128"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -4553,9 +5458,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="154"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="128"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -4583,9 +5488,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="154"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="128"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -4611,9 +5516,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="137"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="129"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="103"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -4625,52 +5530,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="136" t="s">
+      <c r="K35" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="107" t="s">
+      <c r="L35" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="127" t="s">
+      <c r="M35" s="102" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="138"/>
-      <c r="P35" s="114" t="s">
+      <c r="O35" s="104"/>
+      <c r="P35" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="140"/>
-      <c r="R35" s="116" t="s">
+      <c r="Q35" s="108"/>
+      <c r="R35" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="145" t="s">
+      <c r="S35" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="148">
+      <c r="T35" s="118">
         <v>45323</v>
       </c>
-      <c r="U35" s="151" t="s">
+      <c r="U35" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="133"/>
+      <c r="V35" s="95"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="137"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="129"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="103"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="139"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="147"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="153"/>
-      <c r="V36" s="135"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="117"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="123"/>
+      <c r="V36" s="97"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -4762,54 +5667,11 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -4826,17 +5688,60 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trakme_AddWorkOrder_WorkOrder.xlsx
+++ b/trakme_AddWorkOrder_WorkOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trakme_Testing_report\Manual_Testing_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D4D899-078D-4589-99D3-083C632870C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C0EA93-3953-4177-8C0B-5174E712C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="120">
   <si>
     <t>Project Name</t>
   </si>
@@ -391,13 +391,25 @@
   </si>
   <si>
     <t>assign to Mohd Owais</t>
+  </si>
+  <si>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Abdulla Afzal</t>
+  </si>
+  <si>
+    <t>Mark as a red border in blank field</t>
+  </si>
+  <si>
+    <t>please make a border in blank field while submitting the Work Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,8 +496,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -878,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1132,10 +1158,224 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,224 +1402,18 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1817,12 +1851,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -1831,10 +1865,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -1843,10 +1877,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1855,10 +1889,10 @@
       <c r="D6" s="3">
         <v>45310</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -1867,10 +1901,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -1917,318 +1951,318 @@
       </c>
     </row>
     <row r="16" spans="3:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="157" t="s">
+      <c r="K16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="Q16" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="152">
+      <c r="T16" s="103">
         <v>45310</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="139"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
     </row>
     <row r="17" spans="11:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="143"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="141"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="108"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="142" t="s">
+      <c r="K18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="130" t="s">
+      <c r="S18" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="124">
         <v>45310</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="139"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="107"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="148"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="149"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="110"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="140"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="143"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="107"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="141"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="108"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="130" t="s">
+      <c r="S21" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="133">
+      <c r="T21" s="124">
         <v>45310</v>
       </c>
-      <c r="U21" s="136"/>
-      <c r="V21" s="139"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="107"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="148"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="149"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="114"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="114"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="140"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="130"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="143"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="145"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="141"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="108"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="144" t="s">
+      <c r="M24" s="113" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="146"/>
-      <c r="P24" s="106" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="130" t="s">
+      <c r="S24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="133">
+      <c r="T24" s="124">
         <v>45310</v>
       </c>
-      <c r="U24" s="136"/>
-      <c r="V24" s="139"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="107"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="141"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="108"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="106" t="s">
+      <c r="P26" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="115" t="s">
+      <c r="S26" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="118">
+      <c r="T26" s="152">
         <v>45310</v>
       </c>
-      <c r="U26" s="121" t="s">
+      <c r="U26" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="95"/>
+      <c r="V26" s="137"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="96"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="96"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="138"/>
     </row>
     <row r="29" spans="11:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="99"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="97"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="139"/>
     </row>
     <row r="30" spans="11:22" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K30" s="66" t="s">
@@ -2321,32 +2355,32 @@
       <c r="V34" s="78"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="98"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="102"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="131"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="106"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="93"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="159"/>
+      <c r="T35" s="161"/>
+      <c r="U35" s="163"/>
+      <c r="V35" s="165"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="99"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="103"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="94"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="160"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="164"/>
+      <c r="V36" s="166"/>
     </row>
     <row r="37" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28"/>
@@ -2406,51 +2440,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -2467,11 +2461,51 @@
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="R16:T40">
@@ -2522,12 +2556,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -2536,10 +2570,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -2548,10 +2582,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -2560,10 +2594,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -2572,10 +2606,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2622,329 +2656,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="157" t="s">
+      <c r="K16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="Q16" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="152">
+      <c r="T16" s="103">
         <v>45306</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="139"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="143"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="141"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="108"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="142" t="s">
+      <c r="K18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="130" t="s">
+      <c r="S18" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="124">
         <v>45306</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="139"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="107"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="148"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="149"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="110"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="140"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="143"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="107"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="141"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="108"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="115" t="s">
+      <c r="S21" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="118">
+      <c r="T21" s="152">
         <v>45306</v>
       </c>
-      <c r="U21" s="121" t="s">
+      <c r="U21" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="95"/>
+      <c r="V21" s="137"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="148"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="149"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="114"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="114"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="96"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="138"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="143"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="145"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="139"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="144" t="s">
+      <c r="M24" s="113" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="146"/>
-      <c r="P24" s="106" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="130" t="s">
+      <c r="S24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="133">
+      <c r="T24" s="124">
         <v>45306</v>
       </c>
-      <c r="U24" s="136"/>
-      <c r="V24" s="139"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="107"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="141"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="108"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="106" t="s">
+      <c r="P26" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="115" t="s">
+      <c r="S26" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="118">
+      <c r="T26" s="152">
         <v>45306</v>
       </c>
-      <c r="U26" s="121" t="s">
+      <c r="U26" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="95"/>
+      <c r="V26" s="137"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="96"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="96"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="138"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="99"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="97"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="139"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="131" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -2970,9 +3004,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -2998,9 +3032,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3028,9 +3062,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3056,9 +3090,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="99"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="103"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="133"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3070,52 +3104,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="100" t="s">
+      <c r="L35" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="131" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="104"/>
-      <c r="P35" s="106" t="s">
+      <c r="O35" s="142"/>
+      <c r="P35" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="85" t="s">
+      <c r="Q35" s="144"/>
+      <c r="R35" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="115" t="s">
+      <c r="S35" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="118">
+      <c r="T35" s="152">
         <v>45306</v>
       </c>
-      <c r="U35" s="121" t="s">
+      <c r="U35" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="95"/>
+      <c r="V35" s="137"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="99"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="103"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="105"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="97"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="139"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3207,14 +3241,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="U16:U17"/>
@@ -3229,53 +3302,14 @@
     <mergeCell ref="T18:T20"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
@@ -3325,12 +3359,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -3339,10 +3373,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -3351,10 +3385,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -3363,10 +3397,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -3375,10 +3409,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -3425,329 +3459,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="157" t="s">
+      <c r="K16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="Q16" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="152">
+      <c r="T16" s="103">
         <v>45306</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="139"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="143"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="141"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="108"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="142" t="s">
+      <c r="K18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="130" t="s">
+      <c r="S18" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="124">
         <v>45306</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="139"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="107"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="148"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="149"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="110"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="140"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="143"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="107"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="141"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="108"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="115" t="s">
+      <c r="S21" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="118">
+      <c r="T21" s="152">
         <v>45306</v>
       </c>
-      <c r="U21" s="121" t="s">
+      <c r="U21" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="95"/>
+      <c r="V21" s="137"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="148"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="149"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="114"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="114"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="119"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="96"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="150"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="138"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="143"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="145"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="157"/>
+      <c r="V23" s="139"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="144" t="s">
+      <c r="M24" s="113" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="146"/>
-      <c r="P24" s="106" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="130" t="s">
+      <c r="S24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="133">
+      <c r="T24" s="124">
         <v>45306</v>
       </c>
-      <c r="U24" s="136"/>
-      <c r="V24" s="139"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="107"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="141"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="108"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="106" t="s">
+      <c r="P26" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="115" t="s">
+      <c r="S26" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="118">
+      <c r="T26" s="152">
         <v>45306</v>
       </c>
-      <c r="U26" s="121" t="s">
+      <c r="U26" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="95"/>
+      <c r="V26" s="137"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="96"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="150"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="119"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="96"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="138"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="99"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="97"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="157"/>
+      <c r="V29" s="139"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="131" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -3773,9 +3807,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -3801,9 +3835,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3831,9 +3865,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3859,9 +3893,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="99"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="103"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="133"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3873,52 +3907,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="100" t="s">
+      <c r="L35" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="131" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="104"/>
-      <c r="P35" s="106" t="s">
+      <c r="O35" s="142"/>
+      <c r="P35" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="85" t="s">
+      <c r="Q35" s="144"/>
+      <c r="R35" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="115" t="s">
+      <c r="S35" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="118">
+      <c r="T35" s="152">
         <v>45306</v>
       </c>
-      <c r="U35" s="121" t="s">
+      <c r="U35" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="95"/>
+      <c r="V35" s="137"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="99"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="103"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="105"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="97"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="139"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -4010,11 +4044,54 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -4031,54 +4108,11 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
@@ -4097,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0FD432-C4DE-4B18-BE9A-437748736862}">
-  <dimension ref="C3:V49"/>
+  <dimension ref="C3:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="L39" zoomScale="70" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32:U48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4119,71 +4153,72 @@
     <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="169"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-    </row>
-    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+    </row>
+    <row r="4" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-    </row>
-    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+    </row>
+    <row r="5" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-    </row>
-    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+    </row>
+    <row r="6" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-    </row>
-    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+    </row>
+    <row r="7" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4226,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:23" ht="29" x14ac:dyDescent="0.35">
       <c r="K15" s="4" t="s">
         <v>10</v>
       </c>
@@ -4228,331 +4263,348 @@
       <c r="V15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="157" t="s">
+      <c r="W15" s="170" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="K16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="Q16" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="152">
+      <c r="T16" s="103">
         <v>45378</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="139"/>
-    </row>
-    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="143"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="170"/>
+    </row>
+    <row r="17" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="90"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="141"/>
-    </row>
-    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="142" t="s">
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="170"/>
+    </row>
+    <row r="18" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="130" t="s">
+      <c r="S18" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="124">
         <v>45378</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="139"/>
-    </row>
-    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="148"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="149"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="170"/>
+    </row>
+    <row r="19" spans="11:23" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="110"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="140"/>
-    </row>
-    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="143"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="145"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="170"/>
+    </row>
+    <row r="20" spans="11:23" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="90"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="107"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="141"/>
-    </row>
-    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="142" t="s">
+      <c r="R20" s="98"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="170"/>
+    </row>
+    <row r="21" spans="11:23" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="130" t="s">
+      <c r="S21" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="133">
+      <c r="T21" s="124">
         <v>45378</v>
       </c>
-      <c r="U21" s="136" t="s">
+      <c r="U21" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="139"/>
-    </row>
-    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="148"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="149"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="170"/>
+    </row>
+    <row r="22" spans="11:23" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="114"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="114"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="140"/>
-    </row>
-    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="143"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="145"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="130"/>
+      <c r="W22" s="170"/>
+    </row>
+    <row r="23" spans="11:23" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="141"/>
-    </row>
-    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="142" t="s">
+      <c r="R23" s="98"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="170"/>
+    </row>
+    <row r="24" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="144" t="s">
+      <c r="M24" s="113" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="146"/>
-      <c r="P24" s="106" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="130" t="s">
+      <c r="S24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="133">
+      <c r="T24" s="124">
         <v>45378</v>
       </c>
-      <c r="U24" s="136"/>
-      <c r="V24" s="139"/>
-    </row>
-    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="170"/>
+    </row>
+    <row r="25" spans="11:23" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="141"/>
-    </row>
-    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="98" t="s">
+      <c r="O25" s="117"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="170"/>
+    </row>
+    <row r="26" spans="11:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="106" t="s">
+      <c r="P26" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="130" t="s">
+      <c r="S26" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="133">
+      <c r="T26" s="124">
         <v>45378</v>
       </c>
-      <c r="U26" s="136" t="s">
+      <c r="U26" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="139" t="s">
+      <c r="V26" s="107" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="140"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="140"/>
-    </row>
-    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="99"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="141"/>
-    </row>
-    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="98" t="s">
+      <c r="W26" s="170"/>
+    </row>
+    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K27" s="158"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="130"/>
+      <c r="W27" s="170"/>
+    </row>
+    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K28" s="158"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="130"/>
+      <c r="W28" s="170"/>
+    </row>
+    <row r="29" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="141"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="170"/>
+    </row>
+    <row r="30" spans="11:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="131" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -4576,11 +4628,12 @@
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="47"/>
-    </row>
-    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="W30" s="170"/>
+    </row>
+    <row r="31" spans="11:23" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="158"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -4599,16 +4652,17 @@
       <c r="S31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="165">
+      <c r="T31" s="85">
         <v>45378</v>
       </c>
       <c r="U31" s="84"/>
-      <c r="V31" s="166"/>
-    </row>
-    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="170"/>
+    </row>
+    <row r="32" spans="11:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="158"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -4627,18 +4681,19 @@
       <c r="S32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="165">
+      <c r="T32" s="85">
         <v>45378</v>
       </c>
       <c r="U32" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="V32" s="166"/>
-    </row>
-    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="170"/>
+    </row>
+    <row r="33" spans="11:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="158"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -4655,18 +4710,19 @@
       <c r="S33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="165">
+      <c r="T33" s="85">
         <v>45378</v>
       </c>
       <c r="U33" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="166"/>
-    </row>
-    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="99"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="103"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="170"/>
+    </row>
+    <row r="34" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="141"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="133"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -4676,58 +4732,61 @@
       <c r="T34" s="21"/>
       <c r="U34" s="43"/>
       <c r="V34" s="48"/>
-    </row>
-    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="98" t="s">
+      <c r="W34" s="170"/>
+    </row>
+    <row r="35" spans="11:23" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="100" t="s">
+      <c r="L35" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="131" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="104"/>
-      <c r="P35" s="106" t="s">
+      <c r="O35" s="142"/>
+      <c r="P35" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="85" t="s">
+      <c r="Q35" s="144"/>
+      <c r="R35" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="115" t="s">
+      <c r="S35" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="118">
+      <c r="T35" s="152">
         <v>45378</v>
       </c>
-      <c r="U35" s="121" t="s">
+      <c r="U35" s="155" t="s">
         <v>113</v>
       </c>
       <c r="V35" s="167" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="99"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="103"/>
+      <c r="W35" s="170"/>
+    </row>
+    <row r="36" spans="11:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="141"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="105"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="97"/>
-    </row>
-    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O36" s="143"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="139"/>
+      <c r="W36" s="170"/>
+    </row>
+    <row r="37" spans="11:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
         <v>58</v>
       </c>
@@ -4758,8 +4817,9 @@
         <v>94</v>
       </c>
       <c r="V37" s="83"/>
-    </row>
-    <row r="38" spans="11:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W37" s="170"/>
+    </row>
+    <row r="38" spans="11:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="28" t="s">
         <v>61</v>
       </c>
@@ -4788,8 +4848,11 @@
         <v>111</v>
       </c>
       <c r="V38" s="53"/>
-    </row>
-    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W38" s="170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="11:23" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="28" t="s">
         <v>63</v>
       </c>
@@ -4800,14 +4863,27 @@
       <c r="N39" s="18"/>
       <c r="O39" s="7"/>
       <c r="P39" s="31"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="45"/>
+      <c r="Q39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="168">
+        <v>45378</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W39" s="170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="28" t="s">
         <v>65</v>
       </c>
@@ -4824,46 +4900,63 @@
       <c r="T40" s="19"/>
       <c r="U40" s="45"/>
       <c r="V40" s="33"/>
-    </row>
-    <row r="47" spans="11:22" ht="21" x14ac:dyDescent="0.5">
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="168" t="s">
+      <c r="W40" s="170"/>
+    </row>
+    <row r="47" spans="11:23" ht="21" x14ac:dyDescent="0.5">
+      <c r="O47" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="164"/>
-    </row>
-    <row r="48" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="M48" s="164"/>
-      <c r="N48" s="164"/>
-      <c r="O48" s="164"/>
-      <c r="P48" s="164"/>
-      <c r="Q48" s="164"/>
-      <c r="R48" s="164"/>
-      <c r="S48" s="164"/>
-      <c r="T48" s="164"/>
-    </row>
-    <row r="49" spans="13:20" x14ac:dyDescent="0.35">
-      <c r="M49" s="164"/>
-      <c r="N49" s="164"/>
-      <c r="O49" s="164"/>
-      <c r="P49" s="164"/>
-      <c r="Q49" s="164"/>
-      <c r="R49" s="164"/>
-      <c r="S49" s="164"/>
-      <c r="T49" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -4880,60 +4973,17 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4978,12 +5028,12 @@
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -4992,10 +5042,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -5004,10 +5054,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -5016,10 +5066,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -5028,10 +5078,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -5080,331 +5130,331 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="157" t="s">
+      <c r="K16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="158" t="s">
+      <c r="L16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="159" t="s">
+      <c r="N16" s="93" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="160" t="s">
+      <c r="P16" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="161" t="s">
+      <c r="Q16" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="162" t="s">
+      <c r="R16" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="151" t="s">
+      <c r="S16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="T16" s="152">
+      <c r="T16" s="103">
         <v>45323</v>
       </c>
-      <c r="U16" s="154"/>
-      <c r="V16" s="139"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="107"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="143"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="141"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="108"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="142" t="s">
+      <c r="K18" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="144" t="s">
+      <c r="M18" s="113" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="146" t="s">
+      <c r="O18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="106" t="s">
+      <c r="P18" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="85" t="s">
+      <c r="R18" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="130" t="s">
+      <c r="S18" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="133">
+      <c r="T18" s="124">
         <v>45323</v>
       </c>
-      <c r="U18" s="136"/>
-      <c r="V18" s="139"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="107"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="148"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="149"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="150"/>
-      <c r="P19" s="110"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="119"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="114"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="140"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="130"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="143"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="145"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="94"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="107"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="86"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="141"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="126"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="108"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="142" t="s">
+      <c r="K21" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="100" t="s">
+      <c r="L21" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="144" t="s">
+      <c r="M21" s="113" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="146" t="s">
+      <c r="O21" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="106" t="s">
+      <c r="P21" s="118" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="130" t="s">
+      <c r="S21" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="133">
+      <c r="T21" s="124">
         <v>45323</v>
       </c>
-      <c r="U21" s="136" t="s">
+      <c r="U21" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="139"/>
+      <c r="V21" s="107"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="148"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="149"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="114"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="150"/>
-      <c r="P22" s="110"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="119"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="114"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="140"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="130"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="143"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="145"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="94"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="147"/>
-      <c r="P23" s="107"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="86"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="141"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="129"/>
+      <c r="V23" s="108"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="142" t="s">
+      <c r="K24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="100" t="s">
+      <c r="L24" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="144" t="s">
+      <c r="M24" s="113" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="146"/>
-      <c r="P24" s="106" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="85" t="s">
+      <c r="Q24" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="85" t="s">
+      <c r="R24" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="130" t="s">
+      <c r="S24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="133">
+      <c r="T24" s="124">
         <v>45323</v>
       </c>
-      <c r="U24" s="136"/>
-      <c r="V24" s="139"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="107"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="143"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="145"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="147"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="141"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="129"/>
+      <c r="V25" s="108"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="102" t="s">
+      <c r="N26" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="127" t="s">
+      <c r="O26" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="106" t="s">
+      <c r="P26" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="111" t="s">
+      <c r="Q26" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="130" t="s">
+      <c r="S26" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="133">
+      <c r="T26" s="124">
         <v>45323</v>
       </c>
-      <c r="U26" s="136" t="s">
+      <c r="U26" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="95" t="s">
+      <c r="V26" s="137" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="124"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="96"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="134"/>
-      <c r="U28" s="137"/>
-      <c r="V28" s="96"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="123"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="138"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="99"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="97"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="129"/>
+      <c r="V29" s="139"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="98" t="s">
+      <c r="K30" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="131" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -5430,9 +5480,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="124"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -5458,9 +5508,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="124"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -5488,9 +5538,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="124"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -5516,9 +5566,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="99"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="103"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="133"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -5530,52 +5580,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="98" t="s">
+      <c r="K35" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="100" t="s">
+      <c r="L35" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="102" t="s">
+      <c r="M35" s="131" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="104"/>
-      <c r="P35" s="106" t="s">
+      <c r="O35" s="142"/>
+      <c r="P35" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="85" t="s">
+      <c r="Q35" s="144"/>
+      <c r="R35" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="115" t="s">
+      <c r="S35" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="118">
+      <c r="T35" s="152">
         <v>45323</v>
       </c>
-      <c r="U35" s="121" t="s">
+      <c r="U35" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="95"/>
+      <c r="V35" s="137"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="99"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="103"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="105"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="97"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="154"/>
+      <c r="U36" s="157"/>
+      <c r="V36" s="139"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -5667,11 +5717,54 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -5688,60 +5781,17 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trakme_AddWorkOrder_WorkOrder.xlsx
+++ b/trakme_AddWorkOrder_WorkOrder.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trakme_Testing_report\Manual_Testing_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C0EA93-3953-4177-8C0B-5174E712C13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC17A8D-2286-497E-9364-E5B67B458F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Workorder1.0" sheetId="4" r:id="rId1"/>
     <sheet name="AddWorkOrder1" sheetId="1" r:id="rId2"/>
     <sheet name="Addworkorder1.1" sheetId="2" r:id="rId3"/>
-    <sheet name="Addworkorder1.3" sheetId="6" r:id="rId4"/>
-    <sheet name="Addworkorder1.2" sheetId="5" r:id="rId5"/>
+    <sheet name="Addworkorder1.2" sheetId="5" r:id="rId4"/>
+    <sheet name="Addworkorder1.3 " sheetId="7" r:id="rId5"/>
+    <sheet name="Addworkorder1.4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="126">
   <si>
     <t>Project Name</t>
   </si>
@@ -403,6 +404,24 @@
   </si>
   <si>
     <t>please make a border in blank field while submitting the Work Order</t>
+  </si>
+  <si>
+    <t>Bug Fixed Date</t>
+  </si>
+  <si>
+    <t>Iccid column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter starting iccid-ending Iccid </t>
+  </si>
+  <si>
+    <t>91409898900980-91409898900990</t>
+  </si>
+  <si>
+    <t>while filling data in below column starting and ending iccid should be taken</t>
+  </si>
+  <si>
+    <t>Mohd Owais</t>
   </si>
 </sst>
 </file>
@@ -505,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +642,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1165,253 +1196,268 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,7 +1465,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1851,12 +1911,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -1865,10 +1925,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -1877,10 +1937,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1889,10 +1949,10 @@
       <c r="D6" s="3">
         <v>45310</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -1901,10 +1961,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -1951,318 +2011,318 @@
       </c>
     </row>
     <row r="16" spans="3:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="93" t="s">
+      <c r="M16" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="93" t="s">
+      <c r="N16" s="164" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="99" t="s">
+      <c r="R16" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="103">
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
         <v>45310</v>
       </c>
-      <c r="U16" s="105"/>
-      <c r="V16" s="107"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
     </row>
     <row r="17" spans="11:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="90"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="108"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="111" t="s">
+      <c r="L18" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="149" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="115" t="s">
+      <c r="O18" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="118" t="s">
+      <c r="P18" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="124">
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
         <v>45310</v>
       </c>
-      <c r="U18" s="127"/>
-      <c r="V18" s="107"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="114"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="121"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="130"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="90"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="96"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="108"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="113" t="s">
+      <c r="M21" s="149" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="115" t="s">
+      <c r="O21" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="P21" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="120" t="s">
+      <c r="R21" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="124">
+      <c r="S21" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="138">
         <v>45310</v>
       </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="107"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="144"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="114"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="130"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="145"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="96"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="108"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="146"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="111" t="s">
+      <c r="L24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="149" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="118" t="s">
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="120" t="s">
+      <c r="Q24" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="124">
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
         <v>45310</v>
       </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="107"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="90"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="94"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="108"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="140" t="s">
+      <c r="K26" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="131" t="s">
+      <c r="M26" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="131" t="s">
+      <c r="N26" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="134" t="s">
+      <c r="O26" s="132" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="118" t="s">
+      <c r="P26" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="146" t="s">
+      <c r="Q26" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="R26" s="120" t="s">
+      <c r="R26" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="152">
+      <c r="S26" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="123">
         <v>45310</v>
       </c>
-      <c r="U26" s="155" t="s">
+      <c r="U26" s="126" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="137"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="158"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="138"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="101"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="158"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="138"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="101"/>
     </row>
     <row r="29" spans="11:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="141"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="139"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="102"/>
     </row>
     <row r="30" spans="11:22" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K30" s="66" t="s">
@@ -2355,32 +2415,32 @@
       <c r="V34" s="78"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="140"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="131"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="107"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="161"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="165"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="98"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="141"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="133"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="160"/>
-      <c r="T36" s="162"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="166"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="99"/>
     </row>
     <row r="37" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28"/>
@@ -2440,11 +2500,51 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="R21:R23"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -2461,58 +2561,18 @@
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2556,12 +2616,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -2570,10 +2630,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -2582,10 +2642,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -2594,10 +2654,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -2606,10 +2666,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2656,329 +2716,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="93" t="s">
+      <c r="M16" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="93" t="s">
+      <c r="N16" s="164" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="99" t="s">
+      <c r="R16" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="103">
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
         <v>45306</v>
       </c>
-      <c r="U16" s="105"/>
-      <c r="V16" s="107"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="90"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="108"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="111" t="s">
+      <c r="L18" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="149" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="115" t="s">
+      <c r="O18" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="118" t="s">
+      <c r="P18" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="124">
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
         <v>45306</v>
       </c>
-      <c r="U18" s="127"/>
-      <c r="V18" s="107"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="114"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="121"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="130"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="90"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="96"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="108"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="113" t="s">
+      <c r="M21" s="149" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="115" t="s">
+      <c r="O21" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="P21" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="120" t="s">
+      <c r="R21" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="152">
+      <c r="S21" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="123">
         <v>45306</v>
       </c>
-      <c r="U21" s="155" t="s">
+      <c r="U21" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="137"/>
+      <c r="V21" s="100"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="114"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="138"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="101"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="96"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="139"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="102"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="111" t="s">
+      <c r="L24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="149" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="118" t="s">
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="120" t="s">
+      <c r="Q24" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="124">
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
         <v>45306</v>
       </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="107"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="90"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="94"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="108"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="140" t="s">
+      <c r="K26" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="131" t="s">
+      <c r="M26" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="131" t="s">
+      <c r="N26" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="134" t="s">
+      <c r="O26" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="118" t="s">
+      <c r="P26" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="146" t="s">
+      <c r="Q26" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="120" t="s">
+      <c r="R26" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="152">
+      <c r="S26" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="123">
         <v>45306</v>
       </c>
-      <c r="U26" s="155" t="s">
+      <c r="U26" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="137"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="158"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="138"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="101"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="158"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="138"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="101"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="141"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="139"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="102"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="111" t="s">
+      <c r="L30" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="131" t="s">
+      <c r="M30" s="107" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -3004,9 +3064,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="158"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="132"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -3032,9 +3092,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="158"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="132"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3062,9 +3122,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="158"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="132"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="131"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3150,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="141"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="133"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="108"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3104,52 +3164,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="140" t="s">
+      <c r="K35" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="111" t="s">
+      <c r="L35" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="131" t="s">
+      <c r="M35" s="107" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="142"/>
-      <c r="P35" s="118" t="s">
+      <c r="O35" s="109"/>
+      <c r="P35" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="120" t="s">
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="152">
+      <c r="S35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="123">
         <v>45306</v>
       </c>
-      <c r="U35" s="155" t="s">
+      <c r="U35" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="137"/>
+      <c r="V35" s="100"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="141"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="133"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="139"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="102"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3241,6 +3301,64 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="N26:N29"/>
     <mergeCell ref="U35:U36"/>
     <mergeCell ref="V35:V36"/>
     <mergeCell ref="K35:K36"/>
@@ -3252,27 +3370,772 @@
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="T35:T36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
+  <dimension ref="C3:V40"/>
+  <sheetViews>
+    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+    </row>
+    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+    </row>
+    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+    </row>
+    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
+    </row>
+    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K16" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="165" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
+        <v>45306</v>
+      </c>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
+    </row>
+    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
+    </row>
+    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
+        <v>45306</v>
+      </c>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
+    </row>
+    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
+    </row>
+    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
+    </row>
+    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="123">
+        <v>45306</v>
+      </c>
+      <c r="U21" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="100"/>
+    </row>
+    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="119"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="101"/>
+    </row>
+    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="91"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="102"/>
+    </row>
+    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
+        <v>45306</v>
+      </c>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
+    </row>
+    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
+    </row>
+    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="123">
+        <v>45306</v>
+      </c>
+      <c r="U26" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="100"/>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="124"/>
+      <c r="U27" s="127"/>
+      <c r="V27" s="101"/>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="124"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="101"/>
+    </row>
+    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="102"/>
+    </row>
+    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45306</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U31" s="44"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="46">
+        <v>45307</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="109"/>
+      <c r="P35" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="123">
+        <v>45306</v>
+      </c>
+      <c r="U35" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="100"/>
+    </row>
+    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="102"/>
+    </row>
+    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="51">
+        <v>45306</v>
+      </c>
+      <c r="U37" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="53"/>
+    </row>
+    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
     <mergeCell ref="Q26:Q29"/>
     <mergeCell ref="R26:R29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="T24:T25"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
     <mergeCell ref="M24:M25"/>
@@ -3320,809 +4183,6 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
-  <dimension ref="C3:V40"/>
-  <sheetViews>
-    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:R7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" customWidth="1"/>
-    <col min="18" max="18" width="31.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-    </row>
-    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-    </row>
-    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-    </row>
-    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-    </row>
-    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="103">
-        <v>45306</v>
-      </c>
-      <c r="U16" s="105"/>
-      <c r="V16" s="107"/>
-    </row>
-    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="90"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="108"/>
-    </row>
-    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="124">
-        <v>45306</v>
-      </c>
-      <c r="U18" s="127"/>
-      <c r="V18" s="107"/>
-    </row>
-    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="121"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="130"/>
-    </row>
-    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="90"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="108"/>
-    </row>
-    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="152">
-        <v>45306</v>
-      </c>
-      <c r="U21" s="155" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="137"/>
-    </row>
-    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="150"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="138"/>
-    </row>
-    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="139"/>
-    </row>
-    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="124">
-        <v>45306</v>
-      </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="107"/>
-    </row>
-    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="90"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="108"/>
-    </row>
-    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="152">
-        <v>45306</v>
-      </c>
-      <c r="U26" s="155" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" s="137"/>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="158"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="138"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="158"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="138"/>
-    </row>
-    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="141"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="157"/>
-      <c r="V29" s="139"/>
-    </row>
-    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="15">
-        <v>45306</v>
-      </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="47"/>
-    </row>
-    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="158"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="49"/>
-    </row>
-    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="158"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="46">
-        <v>45307</v>
-      </c>
-      <c r="U32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="49"/>
-    </row>
-    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="158"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="49"/>
-    </row>
-    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="141"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="48"/>
-    </row>
-    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="142"/>
-      <c r="P35" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="152">
-        <v>45306</v>
-      </c>
-      <c r="U35" s="155" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="137"/>
-    </row>
-    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="141"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="139"/>
-    </row>
-    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="51">
-        <v>45306</v>
-      </c>
-      <c r="U37" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="V37" s="53"/>
-    </row>
-    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-    </row>
-    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K40" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
     <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4130,872 +4190,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0FD432-C4DE-4B18-BE9A-437748736862}">
-  <dimension ref="C3:W47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L39" zoomScale="70" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32:U48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" customWidth="1"/>
-    <col min="18" max="18" width="31.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="169"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-    </row>
-    <row r="4" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-    </row>
-    <row r="5" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-    </row>
-    <row r="6" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-    </row>
-    <row r="7" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="15" spans="3:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="170" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="K16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="103">
-        <v>45378</v>
-      </c>
-      <c r="U16" s="105"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="170"/>
-    </row>
-    <row r="17" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="90"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="170"/>
-    </row>
-    <row r="18" spans="11:23" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="124">
-        <v>45378</v>
-      </c>
-      <c r="U18" s="127"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="170"/>
-    </row>
-    <row r="19" spans="11:23" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="170"/>
-    </row>
-    <row r="20" spans="11:23" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="90"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="170"/>
-    </row>
-    <row r="21" spans="11:23" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="120" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="124">
-        <v>45378</v>
-      </c>
-      <c r="U21" s="127" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="107"/>
-      <c r="W21" s="170"/>
-    </row>
-    <row r="22" spans="11:23" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="170"/>
-    </row>
-    <row r="23" spans="11:23" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="108"/>
-      <c r="W23" s="170"/>
-    </row>
-    <row r="24" spans="11:23" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="124">
-        <v>45378</v>
-      </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="170"/>
-    </row>
-    <row r="25" spans="11:23" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="90"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="170"/>
-    </row>
-    <row r="26" spans="11:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="140" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="131" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="118" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="124">
-        <v>45378</v>
-      </c>
-      <c r="U26" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="W26" s="170"/>
-    </row>
-    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
-      <c r="K27" s="158"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="170"/>
-    </row>
-    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
-      <c r="K28" s="158"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="170"/>
-    </row>
-    <row r="29" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="141"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="170"/>
-    </row>
-    <row r="30" spans="11:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="140" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="15">
-        <v>45378</v>
-      </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="170"/>
-    </row>
-    <row r="31" spans="11:23" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="158"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="85">
-        <v>45378</v>
-      </c>
-      <c r="U31" s="84"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="170"/>
-    </row>
-    <row r="32" spans="11:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="158"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="85">
-        <v>45378</v>
-      </c>
-      <c r="U32" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="V32" s="86"/>
-      <c r="W32" s="170"/>
-    </row>
-    <row r="33" spans="11:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="158"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="85">
-        <v>45378</v>
-      </c>
-      <c r="U33" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="V33" s="86"/>
-      <c r="W33" s="170"/>
-    </row>
-    <row r="34" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="141"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="170"/>
-    </row>
-    <row r="35" spans="11:23" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="140" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="142"/>
-      <c r="P35" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="152">
-        <v>45378</v>
-      </c>
-      <c r="U35" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="V35" s="167" t="s">
-        <v>114</v>
-      </c>
-      <c r="W35" s="170"/>
-    </row>
-    <row r="36" spans="11:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="141"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="139"/>
-      <c r="W36" s="170"/>
-    </row>
-    <row r="37" spans="11:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="S37" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="81">
-        <v>45378</v>
-      </c>
-      <c r="U37" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="V37" s="83"/>
-      <c r="W37" s="170"/>
-    </row>
-    <row r="38" spans="11:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="R38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T38" s="51">
-        <v>45378</v>
-      </c>
-      <c r="U38" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="V38" s="53"/>
-      <c r="W38" s="170" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="11:23" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="R39" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T39" s="168">
-        <v>45378</v>
-      </c>
-      <c r="U39" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="V39" s="33"/>
-      <c r="W39" s="170" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K40" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="170"/>
-    </row>
-    <row r="47" spans="11:23" ht="21" x14ac:dyDescent="0.5">
-      <c r="O47" s="87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{773DF529-57B4-4584-835F-CD6187CDE251}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
   <dimension ref="C3:V40"/>
   <sheetViews>
@@ -5028,12 +4222,12 @@
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -5042,10 +4236,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -5054,10 +4248,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -5066,10 +4260,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -5078,10 +4272,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -5130,331 +4324,331 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="89" t="s">
+      <c r="K16" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="93" t="s">
+      <c r="M16" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="93" t="s">
+      <c r="N16" s="164" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="97" t="s">
+      <c r="Q16" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="99" t="s">
+      <c r="R16" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="103">
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
         <v>45323</v>
       </c>
-      <c r="U16" s="105"/>
-      <c r="V16" s="107"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="90"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="108"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="109" t="s">
+      <c r="K18" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="111" t="s">
+      <c r="L18" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="113" t="s">
+      <c r="M18" s="149" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="115" t="s">
+      <c r="O18" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="118" t="s">
+      <c r="P18" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R18" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="124">
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
         <v>45323</v>
       </c>
-      <c r="U18" s="127"/>
-      <c r="V18" s="107"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="114"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="116"/>
-      <c r="P19" s="119"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="121"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="130"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="90"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="94"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="96"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="126"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="108"/>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="109" t="s">
+      <c r="K21" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="111" t="s">
+      <c r="L21" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="113" t="s">
+      <c r="M21" s="149" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="115" t="s">
+      <c r="O21" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="118" t="s">
+      <c r="P21" s="111" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="120" t="s">
+      <c r="R21" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="124">
+      <c r="S21" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="138">
         <v>45323</v>
       </c>
-      <c r="U21" s="127" t="s">
+      <c r="U21" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="107"/>
+      <c r="V21" s="144"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="110"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="114"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="116"/>
-      <c r="P22" s="119"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="121"/>
-      <c r="S22" s="123"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="130"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="145"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="90"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="94"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="96"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="98"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="126"/>
-      <c r="U23" s="129"/>
-      <c r="V23" s="108"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="146"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="111" t="s">
+      <c r="L24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="149" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="118" t="s">
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="120" t="s">
+      <c r="Q24" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="120" t="s">
+      <c r="R24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="124">
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
         <v>45323</v>
       </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="107"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="90"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="94"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="117"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="126"/>
-      <c r="U25" s="129"/>
-      <c r="V25" s="108"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="140" t="s">
+      <c r="K26" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="131" t="s">
+      <c r="M26" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="131" t="s">
+      <c r="N26" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="134" t="s">
+      <c r="O26" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="118" t="s">
+      <c r="P26" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="146" t="s">
+      <c r="Q26" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="120" t="s">
+      <c r="R26" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="124">
+      <c r="S26" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="138">
         <v>45323</v>
       </c>
-      <c r="U26" s="127" t="s">
+      <c r="U26" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="137" t="s">
+      <c r="V26" s="100" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="158"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="123"/>
-      <c r="T27" s="125"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="138"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="101"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="158"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="138"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="101"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="141"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="126"/>
-      <c r="U29" s="129"/>
-      <c r="V29" s="139"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="102"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="140" t="s">
+      <c r="K30" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="111" t="s">
+      <c r="L30" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="131" t="s">
+      <c r="M30" s="107" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -5480,9 +4674,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="158"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="132"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -5508,9 +4702,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="158"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="132"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -5538,9 +4732,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="158"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="132"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="131"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -5566,9 +4760,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="141"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="133"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="108"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -5580,52 +4774,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="140" t="s">
+      <c r="K35" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="111" t="s">
+      <c r="L35" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="131" t="s">
+      <c r="M35" s="107" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="142"/>
-      <c r="P35" s="118" t="s">
+      <c r="O35" s="109"/>
+      <c r="P35" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="120" t="s">
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="149" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="152">
+      <c r="S35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="123">
         <v>45323</v>
       </c>
-      <c r="U35" s="155" t="s">
+      <c r="U35" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="137"/>
+      <c r="V35" s="100"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="141"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="133"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="143"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="157"/>
-      <c r="V36" s="139"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="102"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -5717,54 +4911,11 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -5781,11 +4932,919 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{D5BDAA00-2F49-4852-A602-11F669BA1157}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B10B5-BADE-47AB-8187-3454877FFDAE}">
+  <dimension ref="C3:W47"/>
+  <sheetViews>
+    <sheetView topLeftCell="M12" zoomScale="74" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="170"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+    </row>
+    <row r="4" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+    </row>
+    <row r="5" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+    </row>
+    <row r="6" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
+    </row>
+    <row r="7" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="K16" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="165" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
+        <v>45378</v>
+      </c>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="89"/>
+    </row>
+    <row r="17" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="89"/>
+    </row>
+    <row r="18" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
+        <v>45378</v>
+      </c>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="89"/>
+    </row>
+    <row r="19" spans="11:23" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="89"/>
+    </row>
+    <row r="20" spans="11:23" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="89"/>
+    </row>
+    <row r="21" spans="11:23" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="138">
+        <v>45378</v>
+      </c>
+      <c r="U21" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="144"/>
+      <c r="W21" s="89"/>
+    </row>
+    <row r="22" spans="11:23" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="119"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="89"/>
+    </row>
+    <row r="23" spans="11:23" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="91"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="89"/>
+    </row>
+    <row r="24" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
+        <v>45378</v>
+      </c>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="89"/>
+    </row>
+    <row r="25" spans="11:23" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="89"/>
+    </row>
+    <row r="26" spans="11:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="138">
+        <v>45378</v>
+      </c>
+      <c r="U26" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="89"/>
+    </row>
+    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="89"/>
+    </row>
+    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="89"/>
+    </row>
+    <row r="29" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="89"/>
+    </row>
+    <row r="30" spans="11:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45378</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="89"/>
+    </row>
+    <row r="31" spans="11:23" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="89"/>
+    </row>
+    <row r="32" spans="11:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="86"/>
+      <c r="W32" s="89"/>
+    </row>
+    <row r="33" spans="11:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U33" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="89"/>
+    </row>
+    <row r="34" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="89"/>
+    </row>
+    <row r="35" spans="11:23" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="109"/>
+      <c r="P35" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="123">
+        <v>45378</v>
+      </c>
+      <c r="U35" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="169" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="89"/>
+    </row>
+    <row r="36" spans="11:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="89"/>
+    </row>
+    <row r="37" spans="11:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="81">
+        <v>45378</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="83"/>
+      <c r="W37" s="89"/>
+    </row>
+    <row r="38" spans="11:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="51">
+        <v>45378</v>
+      </c>
+      <c r="U38" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="V38" s="53"/>
+      <c r="W38" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="11:23" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="88">
+        <v>45378</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="V39" s="33"/>
+      <c r="W39" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="89"/>
+    </row>
+    <row r="47" spans="11:23" ht="21" x14ac:dyDescent="0.5">
+      <c r="O47" s="87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="T35:T36"/>
     <mergeCell ref="U35:U36"/>
     <mergeCell ref="V35:V36"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
@@ -5796,8 +5855,922 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{D5BDAA00-2F49-4852-A602-11F669BA1157}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{918F66EC-3E65-4AE2-8028-8DC452D70908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0FD432-C4DE-4B18-BE9A-437748736862}">
+  <dimension ref="C3:X47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L37" zoomScale="74" workbookViewId="0">
+      <selection activeCell="S39" sqref="S39:V40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="170" customWidth="1"/>
+    <col min="24" max="24" width="14" style="171" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="161"/>
+    </row>
+    <row r="4" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+    </row>
+    <row r="5" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+    </row>
+    <row r="6" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="161"/>
+      <c r="R6" s="161"/>
+    </row>
+    <row r="7" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="K16" s="162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="165" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="166" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="157">
+        <v>45385</v>
+      </c>
+      <c r="U16" s="159"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="173"/>
+    </row>
+    <row r="17" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="148"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="158"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="146"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="173"/>
+    </row>
+    <row r="18" spans="11:24" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="138">
+        <v>45385</v>
+      </c>
+      <c r="U18" s="141"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="173"/>
+    </row>
+    <row r="19" spans="11:24" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="153"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="155"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="136"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="173"/>
+    </row>
+    <row r="20" spans="11:24" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="148"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="91"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="146"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="173"/>
+    </row>
+    <row r="21" spans="11:24" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="138">
+        <v>45385</v>
+      </c>
+      <c r="U21" s="141" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="144"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="173"/>
+    </row>
+    <row r="22" spans="11:24" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="153"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="155"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="119"/>
+      <c r="S22" s="136"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="173"/>
+    </row>
+    <row r="23" spans="11:24" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="148"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="152"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="91"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="173"/>
+    </row>
+    <row r="24" spans="11:24" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="147" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="149" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="151"/>
+      <c r="P24" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="138">
+        <v>45385</v>
+      </c>
+      <c r="U24" s="141"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="173"/>
+    </row>
+    <row r="25" spans="11:24" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="148"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="152"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="173"/>
+    </row>
+    <row r="26" spans="11:24" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="135" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="138">
+        <v>45385</v>
+      </c>
+      <c r="U26" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="144" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="89"/>
+      <c r="X26" s="173"/>
+    </row>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.35">
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="117"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="136"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="173"/>
+    </row>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.35">
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="133"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="136"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="173"/>
+    </row>
+    <row r="29" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="104"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="173"/>
+    </row>
+    <row r="30" spans="11:24" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45384</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="173"/>
+    </row>
+    <row r="31" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="129"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="85">
+        <v>45385</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="173"/>
+    </row>
+    <row r="32" spans="11:24" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="129"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="85">
+        <v>45385</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="86"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="173"/>
+    </row>
+    <row r="33" spans="11:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="129"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="85">
+        <v>45385</v>
+      </c>
+      <c r="U33" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="173"/>
+    </row>
+    <row r="34" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="104"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="173"/>
+    </row>
+    <row r="35" spans="11:24" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="109"/>
+      <c r="P35" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="113"/>
+      <c r="R35" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="123">
+        <v>45385</v>
+      </c>
+      <c r="U35" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="169" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="89"/>
+      <c r="X35" s="173"/>
+    </row>
+    <row r="36" spans="11:24" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="104"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="110"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="173"/>
+    </row>
+    <row r="37" spans="11:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="81">
+        <v>45385</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="83"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="173"/>
+    </row>
+    <row r="38" spans="11:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="81">
+        <v>45385</v>
+      </c>
+      <c r="U38" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="V38" s="83"/>
+      <c r="W38" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="X38" s="175">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="39" spans="11:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="51">
+        <v>45385</v>
+      </c>
+      <c r="U39" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="V39" s="53"/>
+      <c r="W39" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="X39" s="173"/>
+    </row>
+    <row r="40" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="51">
+        <v>45385</v>
+      </c>
+      <c r="U40" s="52"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="X40" s="174"/>
+    </row>
+    <row r="47" spans="11:24" ht="21" x14ac:dyDescent="0.5">
+      <c r="O47" s="87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{773DF529-57B4-4584-835F-CD6187CDE251}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/trakme_AddWorkOrder_WorkOrder.xlsx
+++ b/trakme_AddWorkOrder_WorkOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trakme_Testing_report\Manual_Testing_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC17A8D-2286-497E-9364-E5B67B458F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B791A128-1480-464C-9F1E-BE659230F09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{17A80CF6-B907-4EEA-B7F1-611B1441E0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Workorder1.0" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Addworkorder1.1" sheetId="2" r:id="rId3"/>
     <sheet name="Addworkorder1.2" sheetId="5" r:id="rId4"/>
     <sheet name="Addworkorder1.3 " sheetId="7" r:id="rId5"/>
-    <sheet name="Addworkorder1.4" sheetId="6" r:id="rId6"/>
+    <sheet name="Addworkorder1.4" sheetId="8" r:id="rId6"/>
+    <sheet name="Addworkorder1.5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="126">
   <si>
     <t>Project Name</t>
   </si>
@@ -1202,10 +1203,235 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,232 +1458,7 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1466,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1911,12 +1926,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="161" t="s">
+      <c r="O3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -1925,10 +1940,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -1937,10 +1952,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1949,10 +1964,10 @@
       <c r="D6" s="3">
         <v>45310</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -1961,10 +1976,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2011,318 +2026,318 @@
       </c>
     </row>
     <row r="16" spans="3:22" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
+      <c r="K16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="101" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="165" t="s">
+      <c r="P16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="166" t="s">
+      <c r="Q16" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="167" t="s">
+      <c r="R16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
         <v>45310</v>
       </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
     </row>
     <row r="17" spans="11:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
+      <c r="K18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="105" t="s">
+      <c r="L18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="151" t="s">
+      <c r="O18" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
         <v>45310</v>
       </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
+      <c r="K21" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L21" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="121" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="90" t="s">
+      <c r="R21" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="138">
+      <c r="S21" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="132">
         <v>45310</v>
       </c>
-      <c r="U21" s="141"/>
-      <c r="V21" s="144"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="115"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="145"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="138"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="146"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="116"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
+      <c r="K24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="121" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="90" t="s">
+      <c r="Q24" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="R24" s="90" t="s">
+      <c r="R24" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
         <v>45310</v>
       </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
+      <c r="K26" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="105" t="s">
+      <c r="L26" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="107" t="s">
+      <c r="N26" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="O26" s="132" t="s">
+      <c r="O26" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="P26" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="Q26" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="R26" s="90" t="s">
+      <c r="R26" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="123">
+      <c r="S26" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="160">
         <v>45310</v>
       </c>
-      <c r="U26" s="126" t="s">
+      <c r="U26" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="100"/>
+      <c r="V26" s="145"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="101"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="146"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="101"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="146"/>
     </row>
     <row r="29" spans="11:22" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="102"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="147"/>
     </row>
     <row r="30" spans="11:22" ht="180.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K30" s="66" t="s">
@@ -2415,32 +2430,32 @@
       <c r="V34" s="78"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="107"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="139"/>
       <c r="N35" s="10"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="98"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="171"/>
+      <c r="V35" s="173"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
       <c r="N36" s="18"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="99"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="170"/>
+      <c r="U36" s="172"/>
+      <c r="V36" s="174"/>
     </row>
     <row r="37" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28"/>
@@ -2500,51 +2515,11 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
@@ -2561,18 +2536,58 @@
     <mergeCell ref="K26:K29"/>
     <mergeCell ref="L26:L29"/>
     <mergeCell ref="M26:M29"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2616,12 +2631,12 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="161" t="s">
+      <c r="O3" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -2630,10 +2645,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -2642,10 +2657,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
     </row>
     <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -2654,10 +2669,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -2666,10 +2681,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -2716,329 +2731,329 @@
       </c>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
+      <c r="K16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="101" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="165" t="s">
+      <c r="P16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="166" t="s">
+      <c r="Q16" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="167" t="s">
+      <c r="R16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
         <v>45306</v>
       </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
     </row>
     <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
+      <c r="K18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="105" t="s">
+      <c r="L18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="151" t="s">
+      <c r="O18" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
         <v>45306</v>
       </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
     </row>
     <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
     </row>
     <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
     </row>
     <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
+      <c r="K21" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L21" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="121" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="90" t="s">
+      <c r="R21" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="123">
+      <c r="S21" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="160">
         <v>45306</v>
       </c>
-      <c r="U21" s="126" t="s">
+      <c r="U21" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="100"/>
+      <c r="V21" s="145"/>
     </row>
     <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="101"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="146"/>
     </row>
     <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="102"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="147"/>
     </row>
     <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
+      <c r="K24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="121" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="90" t="s">
+      <c r="Q24" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="90" t="s">
+      <c r="R24" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
         <v>45306</v>
       </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
     </row>
     <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
     </row>
     <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
+      <c r="K26" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="105" t="s">
+      <c r="L26" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="107" t="s">
+      <c r="N26" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="132" t="s">
+      <c r="O26" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="P26" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="Q26" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="90" t="s">
+      <c r="R26" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="123">
+      <c r="S26" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="160">
         <v>45306</v>
       </c>
-      <c r="U26" s="126" t="s">
+      <c r="U26" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="V26" s="100"/>
+      <c r="V26" s="145"/>
     </row>
     <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="101"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="146"/>
     </row>
     <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="101"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="146"/>
     </row>
     <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="102"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="147"/>
     </row>
     <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="103" t="s">
+      <c r="K30" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="L30" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="139" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -3064,9 +3079,9 @@
       <c r="V30" s="47"/>
     </row>
     <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -3092,9 +3107,9 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3122,9 +3137,9 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3150,9 +3165,9 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="108"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -3164,52 +3179,52 @@
       <c r="V34" s="48"/>
     </row>
     <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="105" t="s">
+      <c r="L35" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="139" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111" t="s">
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90" t="s">
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="123">
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
         <v>45306</v>
       </c>
-      <c r="U35" s="126" t="s">
+      <c r="U35" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="100"/>
+      <c r="V35" s="145"/>
     </row>
     <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="102"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
     </row>
     <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -3298,6 +3313,2481 @@
       <c r="T40" s="19"/>
       <c r="U40" s="45"/>
       <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
+  <dimension ref="C3:V40"/>
+  <sheetViews>
+    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+    </row>
+    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+    </row>
+    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+    </row>
+    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K16" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
+        <v>45306</v>
+      </c>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+    </row>
+    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
+    </row>
+    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
+        <v>45306</v>
+      </c>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
+    </row>
+    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
+    </row>
+    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
+    </row>
+    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="160">
+        <v>45306</v>
+      </c>
+      <c r="U21" s="163" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="145"/>
+    </row>
+    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="129"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="146"/>
+    </row>
+    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="106"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="147"/>
+    </row>
+    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
+        <v>45306</v>
+      </c>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
+    </row>
+    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
+    </row>
+    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="160">
+        <v>45306</v>
+      </c>
+      <c r="U26" s="163" t="s">
+        <v>77</v>
+      </c>
+      <c r="V26" s="145"/>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="146"/>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="146"/>
+    </row>
+    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="165"/>
+      <c r="V29" s="147"/>
+    </row>
+    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45306</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U31" s="44"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="46">
+        <v>45307</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="46">
+        <v>45306</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
+        <v>45306</v>
+      </c>
+      <c r="U35" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="145"/>
+    </row>
+    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
+    </row>
+    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S37" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="51">
+        <v>45306</v>
+      </c>
+      <c r="U37" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="53"/>
+    </row>
+    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
+  <dimension ref="C3:V40"/>
+  <sheetViews>
+    <sheetView topLeftCell="D15" zoomScale="86" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26:V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+    </row>
+    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+    </row>
+    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+    </row>
+    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K16" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
+        <v>45323</v>
+      </c>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+    </row>
+    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
+    </row>
+    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
+        <v>45323</v>
+      </c>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
+    </row>
+    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
+    </row>
+    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
+    </row>
+    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="132">
+        <v>45323</v>
+      </c>
+      <c r="U21" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="115"/>
+    </row>
+    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="129"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="138"/>
+    </row>
+    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="106"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="116"/>
+    </row>
+    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
+        <v>45323</v>
+      </c>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
+    </row>
+    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
+    </row>
+    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="132">
+        <v>45323</v>
+      </c>
+      <c r="U26" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="145" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="146"/>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="146"/>
+    </row>
+    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="147"/>
+    </row>
+    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45323</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U31" s="44"/>
+      <c r="V31" s="49"/>
+    </row>
+    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="V32" s="49"/>
+    </row>
+    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="46">
+        <v>45323</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="49"/>
+    </row>
+    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+    </row>
+    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
+        <v>45323</v>
+      </c>
+      <c r="U35" s="163" t="s">
+        <v>92</v>
+      </c>
+      <c r="V35" s="145"/>
+    </row>
+    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
+    </row>
+    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="81">
+        <v>45323</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="83"/>
+    </row>
+    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K30:K34"/>
+    <mergeCell ref="L30:L34"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R16:T40">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{D5BDAA00-2F49-4852-A602-11F669BA1157}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B10B5-BADE-47AB-8187-3454877FFDAE}">
+  <dimension ref="C3:W47"/>
+  <sheetViews>
+    <sheetView topLeftCell="M12" zoomScale="74" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
+    <col min="17" max="17" width="23.81640625" customWidth="1"/>
+    <col min="18" max="18" width="31.54296875" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+    </row>
+    <row r="4" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+    </row>
+    <row r="5" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45306</v>
+      </c>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+    </row>
+    <row r="7" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
+      <c r="K16" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
+        <v>45378</v>
+      </c>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="89"/>
+    </row>
+    <row r="17" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="89"/>
+    </row>
+    <row r="18" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
+        <v>45378</v>
+      </c>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="89"/>
+    </row>
+    <row r="19" spans="11:23" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="89"/>
+    </row>
+    <row r="20" spans="11:23" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="89"/>
+    </row>
+    <row r="21" spans="11:23" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="132">
+        <v>45378</v>
+      </c>
+      <c r="U21" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="115"/>
+      <c r="W21" s="89"/>
+    </row>
+    <row r="22" spans="11:23" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" s="129"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="89"/>
+    </row>
+    <row r="23" spans="11:23" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="106"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="89"/>
+    </row>
+    <row r="24" spans="11:23" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
+        <v>45378</v>
+      </c>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="89"/>
+    </row>
+    <row r="25" spans="11:23" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="89"/>
+    </row>
+    <row r="26" spans="11:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="139" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" s="142" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="132">
+        <v>45378</v>
+      </c>
+      <c r="U26" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="89"/>
+    </row>
+    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="89"/>
+    </row>
+    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="89"/>
+    </row>
+    <row r="29" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="89"/>
+    </row>
+    <row r="30" spans="11:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="15">
+        <v>45378</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="89"/>
+    </row>
+    <row r="31" spans="11:23" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="89"/>
+    </row>
+    <row r="32" spans="11:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="86"/>
+      <c r="W32" s="89"/>
+    </row>
+    <row r="33" spans="11:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="85">
+        <v>45378</v>
+      </c>
+      <c r="U33" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" s="86"/>
+      <c r="W33" s="89"/>
+    </row>
+    <row r="34" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="89"/>
+    </row>
+    <row r="35" spans="11:23" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
+        <v>45378</v>
+      </c>
+      <c r="U35" s="163" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" s="89"/>
+    </row>
+    <row r="36" spans="11:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
+      <c r="W36" s="89"/>
+    </row>
+    <row r="37" spans="11:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O37" s="30"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="S37" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="81">
+        <v>45378</v>
+      </c>
+      <c r="U37" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="V37" s="83"/>
+      <c r="W37" s="89"/>
+    </row>
+    <row r="38" spans="11:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="51">
+        <v>45378</v>
+      </c>
+      <c r="U38" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="V38" s="53"/>
+      <c r="W38" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="11:23" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R39" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="88">
+        <v>45378</v>
+      </c>
+      <c r="U39" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="V39" s="33"/>
+      <c r="W39" s="89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K40" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="89"/>
+    </row>
+    <row r="47" spans="11:23" ht="21" x14ac:dyDescent="0.5">
+      <c r="O47" s="87" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -3339,59 +5829,60 @@
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="V26:V29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="T24:T25"/>
     <mergeCell ref="U24:U25"/>
     <mergeCell ref="V24:V25"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
     <mergeCell ref="M30:M34"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="O35:O36"/>
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="U26:U29"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{BC951F31-B431-402F-BFD1-C93986E259BE}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{918F66EC-3E65-4AE2-8028-8DC452D70908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454A8D4A-DC23-4E50-AA78-1CFC66E9E871}">
-  <dimension ref="C3:V40"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B1A3D5-CA5C-4874-BF88-830CF8451C17}">
+  <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="P35" zoomScale="86" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:R7"/>
+    <sheetView topLeftCell="L39" zoomScale="74" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3410,77 +5901,81 @@
     <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="90" customWidth="1"/>
+    <col min="24" max="24" width="14" style="91" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="161" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-    </row>
-    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+    </row>
+    <row r="4" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-    </row>
-    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+    </row>
+    <row r="5" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-    </row>
-    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-    </row>
-    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+    </row>
+    <row r="7" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="D8" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" ht="29" x14ac:dyDescent="0.35">
       <c r="K15" s="4" t="s">
         <v>10</v>
       </c>
@@ -3517,331 +6012,365 @@
       <c r="V15" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
+      <c r="W15" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="K16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="101" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="165" t="s">
+      <c r="P16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="166" t="s">
+      <c r="Q16" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="167" t="s">
+      <c r="R16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
-        <v>45306</v>
-      </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
-    </row>
-    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
+        <v>45385</v>
+      </c>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="93"/>
+    </row>
+    <row r="17" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
-    </row>
-    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="93"/>
+    </row>
+    <row r="18" spans="11:24" ht="27" x14ac:dyDescent="0.35">
+      <c r="K18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="105" t="s">
+      <c r="L18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="151" t="s">
+      <c r="O18" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
-        <v>45306</v>
-      </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
-    </row>
-    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
+        <v>45385</v>
+      </c>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="93"/>
+    </row>
+    <row r="19" spans="11:24" ht="67.5" x14ac:dyDescent="0.35">
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
-    </row>
-    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="93"/>
+    </row>
+    <row r="20" spans="11:24" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
-    </row>
-    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="93"/>
+    </row>
+    <row r="21" spans="11:24" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="K21" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L21" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="121" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="123">
-        <v>45306</v>
-      </c>
-      <c r="U21" s="126" t="s">
+      <c r="R21" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="S21" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="132">
+        <v>45385</v>
+      </c>
+      <c r="U21" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="100"/>
-    </row>
-    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="93"/>
+    </row>
+    <row r="22" spans="11:24" ht="54" x14ac:dyDescent="0.35">
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="121"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="101"/>
-    </row>
-    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="93"/>
+    </row>
+    <row r="23" spans="11:24" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="102"/>
-    </row>
-    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
+      <c r="R23" s="106"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="93"/>
+    </row>
+    <row r="24" spans="11:24" ht="27" x14ac:dyDescent="0.35">
+      <c r="K24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="121" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="90" t="s">
+      <c r="Q24" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="90" t="s">
+      <c r="R24" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
-        <v>45306</v>
-      </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
-    </row>
-    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
+        <v>45385</v>
+      </c>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="93"/>
+    </row>
+    <row r="25" spans="11:24" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
-    </row>
-    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="93"/>
+    </row>
+    <row r="26" spans="11:24" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="105" t="s">
+      <c r="L26" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="107" t="s">
+      <c r="N26" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="132" t="s">
+      <c r="O26" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="P26" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="Q26" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="S26" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="123">
-        <v>45306</v>
-      </c>
-      <c r="U26" s="126" t="s">
-        <v>77</v>
-      </c>
-      <c r="V26" s="100"/>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="124"/>
-      <c r="U27" s="127"/>
-      <c r="V27" s="101"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="124"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="101"/>
-    </row>
-    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="102"/>
-    </row>
-    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="103" t="s">
+      <c r="R26" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="132">
+        <v>45385</v>
+      </c>
+      <c r="U26" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="W26" s="89"/>
+      <c r="X26" s="93"/>
+    </row>
+    <row r="27" spans="11:24" x14ac:dyDescent="0.35">
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="93"/>
+    </row>
+    <row r="28" spans="11:24" x14ac:dyDescent="0.35">
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="138"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="93"/>
+    </row>
+    <row r="29" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="116"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="93"/>
+    </row>
+    <row r="30" spans="11:24" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K30" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="L30" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="139" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -3861,15 +6390,17 @@
         <v>4</v>
       </c>
       <c r="T30" s="15">
-        <v>45306</v>
+        <v>45384</v>
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="47"/>
-    </row>
-    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="93"/>
+    </row>
+    <row r="31" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -3883,21 +6414,23 @@
         <v>84</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="49"/>
-    </row>
-    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
+        <v>29</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T31" s="85">
+        <v>45385</v>
+      </c>
+      <c r="U31" s="84"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="93"/>
+    </row>
+    <row r="32" spans="11:24" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -3911,23 +6444,25 @@
         <v>88</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="46">
-        <v>45307</v>
-      </c>
-      <c r="U32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="49"/>
-    </row>
-    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
+        <v>106</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="85">
+        <v>45385</v>
+      </c>
+      <c r="U32" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" s="86"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="93"/>
+    </row>
+    <row r="33" spans="11:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -3939,1657 +6474,25 @@
         <v>90</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="46">
-        <v>45306</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="49"/>
-    </row>
-    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="48"/>
-    </row>
-    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="123">
-        <v>45306</v>
-      </c>
-      <c r="U35" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="100"/>
-    </row>
-    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="102"/>
-    </row>
-    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="51">
-        <v>45306</v>
-      </c>
-      <c r="U37" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="V37" s="53"/>
-    </row>
-    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-    </row>
-    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K40" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{1B3C9153-B650-41AA-8852-1EB7E0DF2658}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3DA2F-D46A-4C2D-A591-E711B341C5F0}">
-  <dimension ref="C3:V40"/>
-  <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="86" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:V29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" customWidth="1"/>
-    <col min="18" max="18" width="31.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="161" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-    </row>
-    <row r="4" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-    </row>
-    <row r="5" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-    </row>
-    <row r="6" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-    </row>
-    <row r="7" spans="3:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="164" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="164" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
-        <v>45323</v>
-      </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
-    </row>
-    <row r="17" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
-    </row>
-    <row r="18" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
-        <v>45323</v>
-      </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
-    </row>
-    <row r="19" spans="11:22" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
-    </row>
-    <row r="20" spans="11:22" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
-    </row>
-    <row r="21" spans="11:22" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="138">
-        <v>45323</v>
-      </c>
-      <c r="U21" s="141" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="144"/>
-    </row>
-    <row r="22" spans="11:22" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="145"/>
-    </row>
-    <row r="23" spans="11:22" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="146"/>
-    </row>
-    <row r="24" spans="11:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="149" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
-        <v>45323</v>
-      </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
-    </row>
-    <row r="25" spans="11:22" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
-    </row>
-    <row r="26" spans="11:22" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="138">
-        <v>45323</v>
-      </c>
-      <c r="U26" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="101"/>
-    </row>
-    <row r="28" spans="11:22" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="101"/>
-    </row>
-    <row r="29" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="102"/>
-    </row>
-    <row r="30" spans="11:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="15">
-        <v>45323</v>
-      </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="47"/>
-    </row>
-    <row r="31" spans="11:22" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="46">
-        <v>45323</v>
-      </c>
-      <c r="U31" s="44"/>
-      <c r="V31" s="49"/>
-    </row>
-    <row r="32" spans="11:22" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S32" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="46">
-        <v>45323</v>
-      </c>
-      <c r="U32" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="49"/>
-    </row>
-    <row r="33" spans="11:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="46">
-        <v>45323</v>
-      </c>
-      <c r="U33" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="49"/>
-    </row>
-    <row r="34" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="48"/>
-    </row>
-    <row r="35" spans="11:22" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="L35" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="M35" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="S35" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="123">
-        <v>45323</v>
-      </c>
-      <c r="U35" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="V35" s="100"/>
-    </row>
-    <row r="36" spans="11:22" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="102"/>
-    </row>
-    <row r="37" spans="11:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K37" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="S37" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37" s="81">
-        <v>45323</v>
-      </c>
-      <c r="U37" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="V37" s="83"/>
-    </row>
-    <row r="38" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K38" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="18"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
-    </row>
-    <row r="39" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="N39" s="18"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="33"/>
-    </row>
-    <row r="40" spans="11:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K40" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="V26:V29"/>
-    <mergeCell ref="K30:K34"/>
-    <mergeCell ref="L30:L34"/>
-    <mergeCell ref="M30:M34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{D5BDAA00-2F49-4852-A602-11F669BA1157}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223B10B5-BADE-47AB-8187-3454877FFDAE}">
-  <dimension ref="C3:W47"/>
-  <sheetViews>
-    <sheetView topLeftCell="M12" zoomScale="74" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26953125" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.26953125" customWidth="1"/>
-    <col min="16" max="16" width="22.1796875" customWidth="1"/>
-    <col min="17" max="17" width="23.81640625" customWidth="1"/>
-    <col min="18" max="18" width="31.54296875" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7265625" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="170"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="161" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
-    </row>
-    <row r="4" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-    </row>
-    <row r="5" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-    </row>
-    <row r="6" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45306</v>
-      </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
-    </row>
-    <row r="7" spans="3:23" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
-    </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="15" spans="3:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="K15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="163" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="164" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="164" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
-        <v>45378</v>
-      </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="89"/>
-    </row>
-    <row r="17" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="89"/>
-    </row>
-    <row r="18" spans="11:23" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="149" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
-        <v>45378</v>
-      </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="89"/>
-    </row>
-    <row r="19" spans="11:23" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="89"/>
-    </row>
-    <row r="20" spans="11:23" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="89"/>
-    </row>
-    <row r="21" spans="11:23" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O21" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="138">
-        <v>45378</v>
-      </c>
-      <c r="U21" s="141" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="144"/>
-      <c r="W21" s="89"/>
-    </row>
-    <row r="22" spans="11:23" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="89"/>
-    </row>
-    <row r="23" spans="11:23" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="146"/>
-      <c r="W23" s="89"/>
-    </row>
-    <row r="24" spans="11:23" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="149" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
-        <v>45378</v>
-      </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="89"/>
-    </row>
-    <row r="25" spans="11:23" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="89"/>
-    </row>
-    <row r="26" spans="11:23" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="O26" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q26" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="138">
-        <v>45378</v>
-      </c>
-      <c r="U26" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="V26" s="144" t="s">
-        <v>109</v>
-      </c>
-      <c r="W26" s="89"/>
-    </row>
-    <row r="27" spans="11:23" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="89"/>
-    </row>
-    <row r="28" spans="11:23" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="89"/>
-    </row>
-    <row r="29" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="146"/>
-      <c r="W29" s="89"/>
-    </row>
-    <row r="30" spans="11:23" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="15">
-        <v>45378</v>
-      </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="89"/>
-    </row>
-    <row r="31" spans="11:23" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="85">
-        <v>45378</v>
-      </c>
-      <c r="U31" s="84"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="89"/>
-    </row>
-    <row r="32" spans="11:23" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="85">
-        <v>45378</v>
-      </c>
-      <c r="U32" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="V32" s="86"/>
-      <c r="W32" s="89"/>
-    </row>
-    <row r="33" spans="11:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="S33" s="14" t="s">
         <v>4</v>
       </c>
       <c r="T33" s="85">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="U33" s="84" t="s">
         <v>112</v>
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="89"/>
-    </row>
-    <row r="34" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="108"/>
+      <c r="X33" s="93"/>
+    </row>
+    <row r="34" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -5600,60 +6503,63 @@
       <c r="U34" s="43"/>
       <c r="V34" s="48"/>
       <c r="W34" s="89"/>
-    </row>
-    <row r="35" spans="11:23" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103" t="s">
+      <c r="X34" s="93"/>
+    </row>
+    <row r="35" spans="11:24" ht="74" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K35" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="105" t="s">
+      <c r="L35" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="139" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111" t="s">
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90" t="s">
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="123">
-        <v>45378</v>
-      </c>
-      <c r="U35" s="126" t="s">
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
+        <v>45385</v>
+      </c>
+      <c r="U35" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="V35" s="169" t="s">
+      <c r="V35" s="175" t="s">
         <v>114</v>
       </c>
       <c r="W35" s="89"/>
-    </row>
-    <row r="36" spans="11:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
+      <c r="X35" s="93"/>
+    </row>
+    <row r="36" spans="11:24" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="102"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
       <c r="W36" s="89"/>
-    </row>
-    <row r="37" spans="11:23" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X36" s="93"/>
+    </row>
+    <row r="37" spans="11:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
         <v>58</v>
       </c>
@@ -5678,15 +6584,16 @@
         <v>4</v>
       </c>
       <c r="T37" s="81">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="U37" s="82" t="s">
         <v>94</v>
       </c>
       <c r="V37" s="83"/>
       <c r="W37" s="89"/>
-    </row>
-    <row r="38" spans="11:23" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X37" s="93"/>
+    </row>
+    <row r="38" spans="11:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="28" t="s">
         <v>61</v>
       </c>
@@ -5703,23 +6610,26 @@
         <v>110</v>
       </c>
       <c r="R38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T38" s="51">
-        <v>45378</v>
-      </c>
-      <c r="U38" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="81">
+        <v>45385</v>
+      </c>
+      <c r="U38" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="V38" s="53"/>
+      <c r="V38" s="83"/>
       <c r="W38" s="89" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="11:23" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X38" s="95">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="39" spans="11:24" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K39" s="28" t="s">
         <v>63</v>
       </c>
@@ -5736,21 +6646,22 @@
       <c r="R39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="S39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T39" s="88">
-        <v>45378</v>
-      </c>
-      <c r="U39" s="45" t="s">
+      <c r="S39" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T39" s="51">
+        <v>45385</v>
+      </c>
+      <c r="U39" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="V39" s="33"/>
+      <c r="V39" s="53"/>
       <c r="W39" s="89" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="11:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X39" s="93"/>
+    </row>
+    <row r="40" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="28" t="s">
         <v>65</v>
       </c>
@@ -5758,18 +6669,35 @@
       <c r="M40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="89"/>
-    </row>
-    <row r="47" spans="11:23" ht="21" x14ac:dyDescent="0.5">
+      <c r="N40" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="51">
+        <v>45385</v>
+      </c>
+      <c r="U40" s="52"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="X40" s="94"/>
+    </row>
+    <row r="47" spans="11:24" ht="21" x14ac:dyDescent="0.5">
       <c r="O47" s="87" t="s">
         <v>115</v>
       </c>
@@ -5855,19 +6783,19 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="P16" r:id="rId1" xr:uid="{918F66EC-3E65-4AE2-8028-8DC452D70908}"/>
+    <hyperlink ref="P16" r:id="rId1" xr:uid="{14858D69-4D49-4884-B9E6-B8887091DD45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0FD432-C4DE-4B18-BE9A-437748736862}">
   <dimension ref="C3:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L37" zoomScale="74" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39:V40"/>
+    <sheetView tabSelected="1" topLeftCell="L21" zoomScale="74" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5886,8 +6814,8 @@
     <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7265625" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="170" customWidth="1"/>
-    <col min="24" max="24" width="14" style="171" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="90" customWidth="1"/>
+    <col min="24" max="24" width="14" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5897,12 +6825,12 @@
       <c r="D3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O3" s="161" t="s">
+      <c r="O3" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161"/>
-      <c r="R3" s="161"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
@@ -5911,10 +6839,10 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
@@ -5923,10 +6851,10 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
     </row>
     <row r="6" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -5935,10 +6863,10 @@
       <c r="D6" s="3">
         <v>45306</v>
       </c>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="161"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
@@ -5947,10 +6875,10 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
-      <c r="R7" s="161"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
@@ -6000,362 +6928,362 @@
       <c r="W15" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="X15" s="172" t="s">
+      <c r="X15" s="92" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="K16" s="162" t="s">
+      <c r="K16" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="163" t="s">
+      <c r="L16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="164" t="s">
+      <c r="M16" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="164" t="s">
+      <c r="N16" s="101" t="s">
         <v>25</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="165" t="s">
+      <c r="P16" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="166" t="s">
+      <c r="Q16" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="167" t="s">
+      <c r="R16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="157">
+      <c r="S16" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="111">
         <v>45385</v>
       </c>
-      <c r="U16" s="159"/>
-      <c r="V16" s="144"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="115"/>
       <c r="W16" s="89"/>
-      <c r="X16" s="173"/>
+      <c r="X16" s="93"/>
     </row>
     <row r="17" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K17" s="148"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
       <c r="O17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="137"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="146"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
       <c r="W17" s="89"/>
-      <c r="X17" s="173"/>
+      <c r="X17" s="93"/>
     </row>
     <row r="18" spans="11:24" ht="27" x14ac:dyDescent="0.35">
-      <c r="K18" s="147" t="s">
+      <c r="K18" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="105" t="s">
+      <c r="L18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="121" t="s">
         <v>32</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="151" t="s">
+      <c r="O18" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="111" t="s">
+      <c r="P18" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="90" t="s">
+      <c r="R18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="138">
+      <c r="S18" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="132">
         <v>45385</v>
       </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="144"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="115"/>
       <c r="W18" s="89"/>
-      <c r="X18" s="173"/>
+      <c r="X18" s="93"/>
     </row>
     <row r="19" spans="11:24" ht="67.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="153"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="154"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="155"/>
-      <c r="P19" s="115"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="145"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="138"/>
       <c r="W19" s="89"/>
-      <c r="X19" s="173"/>
+      <c r="X19" s="93"/>
     </row>
     <row r="20" spans="11:24" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K20" s="148"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="150"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="112"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="104"/>
       <c r="Q20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="137"/>
-      <c r="T20" s="140"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="146"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="116"/>
       <c r="W20" s="89"/>
-      <c r="X20" s="173"/>
+      <c r="X20" s="93"/>
     </row>
     <row r="21" spans="11:24" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="147" t="s">
+      <c r="K21" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="105" t="s">
+      <c r="L21" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="149" t="s">
+      <c r="M21" s="121" t="s">
         <v>40</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="111" t="s">
+      <c r="P21" s="126" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R21" s="90" t="s">
+      <c r="R21" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="138">
+      <c r="S21" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="132">
         <v>45385</v>
       </c>
-      <c r="U21" s="141" t="s">
+      <c r="U21" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="144"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="89"/>
-      <c r="X21" s="173"/>
+      <c r="X21" s="93"/>
     </row>
     <row r="22" spans="11:24" ht="54" x14ac:dyDescent="0.35">
-      <c r="K22" s="153"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="154"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="115"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="127"/>
       <c r="Q22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="R22" s="119"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="139"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="145"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="138"/>
       <c r="W22" s="89"/>
-      <c r="X22" s="173"/>
+      <c r="X22" s="93"/>
     </row>
     <row r="23" spans="11:24" ht="54.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K23" s="148"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="150"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="152"/>
-      <c r="P23" s="112"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="104"/>
       <c r="Q23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="140"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="146"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="116"/>
       <c r="W23" s="89"/>
-      <c r="X23" s="173"/>
+      <c r="X23" s="93"/>
     </row>
     <row r="24" spans="11:24" ht="27" x14ac:dyDescent="0.35">
-      <c r="K24" s="147" t="s">
+      <c r="K24" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="105" t="s">
+      <c r="L24" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="149" t="s">
+      <c r="M24" s="121" t="s">
         <v>47</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="151"/>
-      <c r="P24" s="111" t="s">
+      <c r="O24" s="123"/>
+      <c r="P24" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="90" t="s">
+      <c r="Q24" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="R24" s="90" t="s">
+      <c r="R24" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="138">
+      <c r="S24" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="132">
         <v>45385</v>
       </c>
-      <c r="U24" s="141"/>
-      <c r="V24" s="144"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="89"/>
-      <c r="X24" s="173"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="11:24" ht="95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K25" s="148"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="150"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O25" s="152"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="140"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="146"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="116"/>
       <c r="W25" s="89"/>
-      <c r="X25" s="173"/>
+      <c r="X25" s="93"/>
     </row>
     <row r="26" spans="11:24" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="103" t="s">
+      <c r="K26" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="105" t="s">
+      <c r="L26" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="107" t="s">
+      <c r="M26" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="107" t="s">
+      <c r="N26" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="132" t="s">
+      <c r="O26" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="111" t="s">
+      <c r="P26" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="Q26" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="R26" s="90" t="s">
+      <c r="R26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="S26" s="135" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="138">
+      <c r="S26" s="130" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="132">
         <v>45385</v>
       </c>
-      <c r="U26" s="141" t="s">
+      <c r="U26" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="144" t="s">
+      <c r="V26" s="115" t="s">
         <v>109</v>
       </c>
       <c r="W26" s="89"/>
-      <c r="X26" s="173"/>
+      <c r="X26" s="93"/>
     </row>
     <row r="27" spans="11:24" x14ac:dyDescent="0.35">
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="142"/>
-      <c r="V27" s="145"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="127"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="138"/>
       <c r="W27" s="89"/>
-      <c r="X27" s="173"/>
+      <c r="X27" s="93"/>
     </row>
     <row r="28" spans="11:24" x14ac:dyDescent="0.35">
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="142"/>
-      <c r="V28" s="145"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="138"/>
       <c r="W28" s="89"/>
-      <c r="X28" s="173"/>
+      <c r="X28" s="93"/>
     </row>
     <row r="29" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K29" s="104"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="137"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="146"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="116"/>
       <c r="W29" s="89"/>
-      <c r="X29" s="173"/>
+      <c r="X29" s="93"/>
     </row>
     <row r="30" spans="11:24" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K30" s="103" t="s">
+      <c r="K30" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="L30" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="107" t="s">
+      <c r="M30" s="139" t="s">
         <v>52</v>
       </c>
       <c r="N30" s="10"/>
@@ -6380,12 +7308,12 @@
       <c r="U30" s="42"/>
       <c r="V30" s="47"/>
       <c r="W30" s="89"/>
-      <c r="X30" s="173"/>
+      <c r="X30" s="93"/>
     </row>
     <row r="31" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K31" s="129"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="131"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="140"/>
       <c r="N31" s="10" t="s">
         <v>79</v>
       </c>
@@ -6410,12 +7338,12 @@
       <c r="U31" s="84"/>
       <c r="V31" s="86"/>
       <c r="W31" s="89"/>
-      <c r="X31" s="173"/>
+      <c r="X31" s="93"/>
     </row>
     <row r="32" spans="11:24" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="129"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="131"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="140"/>
       <c r="N32" s="10" t="s">
         <v>85</v>
       </c>
@@ -6442,12 +7370,12 @@
       </c>
       <c r="V32" s="86"/>
       <c r="W32" s="89"/>
-      <c r="X32" s="173"/>
+      <c r="X32" s="93"/>
     </row>
     <row r="33" spans="11:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="129"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="131"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="120"/>
+      <c r="M33" s="140"/>
       <c r="N33" s="10" t="s">
         <v>85</v>
       </c>
@@ -6472,12 +7400,12 @@
       </c>
       <c r="V33" s="86"/>
       <c r="W33" s="89"/>
-      <c r="X33" s="173"/>
+      <c r="X33" s="93"/>
     </row>
     <row r="34" spans="11:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K34" s="104"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="108"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="141"/>
       <c r="N34" s="18"/>
       <c r="O34" s="26"/>
       <c r="P34" s="8"/>
@@ -6488,61 +7416,61 @@
       <c r="U34" s="43"/>
       <c r="V34" s="48"/>
       <c r="W34" s="89"/>
-      <c r="X34" s="173"/>
+      <c r="X34" s="93"/>
     </row>
     <row r="35" spans="11:24" ht="74" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K35" s="103" t="s">
+      <c r="K35" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="105" t="s">
+      <c r="L35" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="139" t="s">
         <v>55</v>
       </c>
       <c r="N35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O35" s="109"/>
-      <c r="P35" s="111" t="s">
+      <c r="O35" s="150"/>
+      <c r="P35" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="113"/>
-      <c r="R35" s="90" t="s">
+      <c r="Q35" s="152"/>
+      <c r="R35" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="120" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="123">
+      <c r="S35" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="160">
         <v>45385</v>
       </c>
-      <c r="U35" s="126" t="s">
+      <c r="U35" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="V35" s="169" t="s">
+      <c r="V35" s="175" t="s">
         <v>114</v>
       </c>
       <c r="W35" s="89"/>
-      <c r="X35" s="173"/>
+      <c r="X35" s="93"/>
     </row>
     <row r="36" spans="11:24" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K36" s="104"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="108"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="141"/>
       <c r="N36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="110"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="125"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="102"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="159"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="165"/>
+      <c r="V36" s="147"/>
       <c r="W36" s="89"/>
-      <c r="X36" s="173"/>
+      <c r="X36" s="93"/>
     </row>
     <row r="37" spans="11:24" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K37" s="28" t="s">
@@ -6576,7 +7504,7 @@
       </c>
       <c r="V37" s="83"/>
       <c r="W37" s="89"/>
-      <c r="X37" s="173"/>
+      <c r="X37" s="93"/>
     </row>
     <row r="38" spans="11:24" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K38" s="28" t="s">
@@ -6610,7 +7538,7 @@
       <c r="W38" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="X38" s="175">
+      <c r="X38" s="95">
         <v>45019</v>
       </c>
     </row>
@@ -6644,7 +7572,7 @@
       <c r="W39" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="X39" s="173"/>
+      <c r="X39" s="93"/>
     </row>
     <row r="40" spans="11:24" ht="41" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K40" s="28" t="s">
@@ -6680,7 +7608,7 @@
       <c r="W40" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="X40" s="174"/>
+      <c r="X40" s="94"/>
     </row>
     <row r="47" spans="11:24" ht="21" x14ac:dyDescent="0.5">
       <c r="O47" s="87" t="s">
@@ -6689,11 +7617,54 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="V26:V29"/>
     <mergeCell ref="K30:K34"/>
     <mergeCell ref="L30:L34"/>
@@ -6710,60 +7681,17 @@
     <mergeCell ref="S26:S29"/>
     <mergeCell ref="T26:T29"/>
     <mergeCell ref="U26:U29"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="V21:V23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="O3:R7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R35:R36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
   </mergeCells>
   <conditionalFormatting sqref="R16:T40">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",R16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",R16)))</formula>
     </cfRule>
   </conditionalFormatting>
